--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\44663\Degreeplan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Degree" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Credit" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="DegreeCredit" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="DegreePlan" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Student" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Slot" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="StudentTerm" sheetId="7" r:id="rId9"/>
+    <sheet name="Degree" sheetId="1" r:id="rId1"/>
+    <sheet name="Credit" sheetId="2" r:id="rId2"/>
+    <sheet name="DegreeCredit" sheetId="3" r:id="rId3"/>
+    <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
+    <sheet name="Student" sheetId="5" r:id="rId5"/>
+    <sheet name="Slot" sheetId="6" r:id="rId6"/>
+    <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -298,21 +306,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -321,7 +332,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -331,84 +342,326 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="13.86"/>
-    <col customWidth="1" min="4" max="4" width="17.14"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -422,9 +675,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -433,12 +686,12 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -447,12 +700,12 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -461,12 +714,12 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -475,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1459,33 +1712,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="11.29"/>
-    <col customWidth="1" min="3" max="3" width="24.14"/>
-    <col customWidth="1" min="4" max="4" width="12.86"/>
-    <col customWidth="1" min="5" max="5" width="15.43"/>
-    <col customWidth="1" min="6" max="6" width="12.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1505,9 +1756,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1516,18 +1767,18 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -1536,78 +1787,78 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="B4">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="B5">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="B6">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -1616,18 +1867,18 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1636,18 +1887,18 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -1656,18 +1907,18 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1676,18 +1927,18 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -1696,18 +1947,18 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -1716,18 +1967,18 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -1735,16 +1986,34 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2728,31 +2997,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.86"/>
-    <col customWidth="1" min="2" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2763,559 +3028,559 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4254,30 +4519,26 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.14"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -4294,9 +4555,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -4308,12 +4569,12 @@
         <v>48</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -4325,12 +4586,12 @@
         <v>48</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
@@ -4342,7 +4603,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -5326,32 +5587,28 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="13.71"/>
-    <col customWidth="1" min="3" max="3" width="14.57"/>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="5" width="15.14"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -5365,10 +5622,10 @@
         <v>55</v>
       </c>
       <c r="E1">
-        <v>919.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5382,10 +5639,10 @@
         <v>46</v>
       </c>
       <c r="E2" s="2">
-        <v>9.19568817E8</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>919568817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -5399,10 +5656,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="2">
-        <v>9.19570703E8</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>919570703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -5416,7 +5673,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="2">
-        <v>9.19568816E8</v>
+        <v>919568816</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6400,30 +6657,26 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="9.29"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -6440,677 +6693,677 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>643.0</v>
+        <v>643</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="E8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="E9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="E10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C13" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C14" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C19" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C20" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="5">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="5">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C25" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C26" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="5">
-        <v>643.0</v>
+        <v>643</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>7253.0</v>
+        <v>7253</v>
       </c>
       <c r="C27" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C32" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C33" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C34" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C35" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C36" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C37" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C38" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="2">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C39" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>7255.0</v>
+        <v>7255</v>
       </c>
       <c r="C40" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -8064,31 +8317,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="11.29"/>
-    <col customWidth="1" min="3" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="15.0"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8105,15 +8354,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -8122,15 +8371,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>74</v>
@@ -8139,15 +8388,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -8156,15 +8405,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>78</v>
@@ -8173,15 +8422,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>74</v>
@@ -8190,15 +8439,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>81</v>
@@ -8207,15 +8456,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>78</v>
@@ -8224,15 +8473,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
@@ -8241,15 +8490,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>72</v>
@@ -8258,15 +8507,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>74</v>
@@ -8275,15 +8524,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>87</v>
@@ -8292,15 +8541,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>78</v>
@@ -8309,15 +8558,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>84</v>
@@ -9307,9 +9556,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
     <sheet name="Credit" sheetId="2" r:id="rId2"/>
     <sheet name="DegreeCredit" sheetId="3" r:id="rId3"/>
-    <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
-    <sheet name="Student" sheetId="5" r:id="rId5"/>
+    <sheet name="Student" sheetId="5" r:id="rId4"/>
+    <sheet name="DegreePlan" sheetId="4" r:id="rId5"/>
     <sheet name="Slot" sheetId="6" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
-  <si>
-    <t>CreditID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>CreditAbv</t>
   </si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t>DegreeID</t>
   </si>
   <si>
     <t>DegreeAbv</t>
@@ -144,19 +138,10 @@
     <t>Elective1</t>
   </si>
   <si>
-    <t>DegreeCreditID</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
     <t>Elective2</t>
-  </si>
-  <si>
-    <t>DegreePlanID</t>
-  </si>
-  <si>
-    <t>StudentID</t>
   </si>
   <si>
     <t>DegreePlanAbv</t>
@@ -213,12 +198,6 @@
     <t>Sathwika</t>
   </si>
   <si>
-    <t>SlotID</t>
-  </si>
-  <si>
-    <t>DegreePlan</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -232,9 +211,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>StudenTermID</t>
   </si>
   <si>
     <t>TermAbv</t>
@@ -301,6 +277,42 @@
   </si>
   <si>
     <t>Spring2020</t>
+  </si>
+  <si>
+    <t>PK: DegreeID</t>
+  </si>
+  <si>
+    <t>PK: CreditID</t>
+  </si>
+  <si>
+    <t>PK: DegreeCreditID</t>
+  </si>
+  <si>
+    <t>FK: DegreeID</t>
+  </si>
+  <si>
+    <t>FK: CreditID</t>
+  </si>
+  <si>
+    <t>PK: StudentID</t>
+  </si>
+  <si>
+    <t>PK: DegreePlanID</t>
+  </si>
+  <si>
+    <t>FK: StudentID</t>
+  </si>
+  <si>
+    <t>PK: SlotID</t>
+  </si>
+  <si>
+    <t>FK: DegreePlan</t>
+  </si>
+  <si>
+    <t>PK: StudenTermID</t>
+  </si>
+  <si>
+    <t>FK: Term</t>
   </si>
 </sst>
 </file>
@@ -654,7 +666,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
@@ -663,16 +675,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -680,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -694,10 +706,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -708,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -722,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1721,13 +1733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
@@ -1738,22 +1748,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1761,10 +1771,10 @@
         <v>460</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1781,10 +1791,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1804,7 +1814,7 @@
         <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1824,7 +1834,7 @@
         <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1844,7 +1854,7 @@
         <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1861,10 +1871,10 @@
         <v>664</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1881,10 +1891,10 @@
         <v>618</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1901,10 +1911,10 @@
         <v>555</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1921,10 +1931,10 @@
         <v>691</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1941,10 +1951,10 @@
         <v>692</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1961,10 +1971,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1981,10 +1991,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2001,10 +2011,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3008,24 +3018,26 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4526,33 +4538,1109 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E997"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>919568817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2">
+        <v>919570703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2">
+        <v>919568816</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E997"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4560,13 +5648,13 @@
         <v>7251</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -4577,13 +5665,13 @@
         <v>7253</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -4594,13 +5682,13 @@
         <v>7255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -5592,1105 +6680,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2">
-        <v>919568817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2">
-        <v>919570703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2">
-        <v>919568816</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6707,7 +6728,7 @@
         <v>460</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6724,7 +6745,7 @@
         <v>542</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6741,7 +6762,7 @@
         <v>563</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6758,7 +6779,7 @@
         <v>356</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6775,7 +6796,7 @@
         <v>643</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6792,7 +6813,7 @@
         <v>664</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6809,7 +6830,7 @@
         <v>560</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6826,7 +6847,7 @@
         <v>618</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6843,7 +6864,7 @@
         <v>691</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6860,7 +6881,7 @@
         <v>555</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6877,7 +6898,7 @@
         <v>692</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6894,7 +6915,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6911,7 +6932,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6928,7 +6949,7 @@
         <v>460</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6945,7 +6966,7 @@
         <v>356</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6962,7 +6983,7 @@
         <v>542</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6979,7 +7000,7 @@
         <v>563</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6996,7 +7017,7 @@
         <v>560</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7013,7 +7034,7 @@
         <v>618</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -7030,7 +7051,7 @@
         <v>664</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -7047,7 +7068,7 @@
         <v>555</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -7064,7 +7085,7 @@
         <v>691</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -7081,7 +7102,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
@@ -7098,7 +7119,7 @@
         <v>692</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
@@ -7115,7 +7136,7 @@
         <v>643</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
@@ -7132,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
@@ -7149,7 +7170,7 @@
         <v>356</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
@@ -7166,7 +7187,7 @@
         <v>542</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
@@ -7183,7 +7204,7 @@
         <v>563</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
@@ -7200,7 +7221,7 @@
         <v>460</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
@@ -7217,7 +7238,7 @@
         <v>560</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
@@ -7234,7 +7255,7 @@
         <v>664</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
@@ -7251,7 +7272,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
@@ -7268,7 +7289,7 @@
         <v>618</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
@@ -7285,7 +7306,7 @@
         <v>691</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
@@ -7302,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
@@ -7319,7 +7340,7 @@
         <v>555</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
@@ -7336,7 +7357,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
@@ -7353,7 +7374,7 @@
         <v>692</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1"/>
@@ -8326,12 +8347,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
@@ -8339,19 +8362,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8359,16 +8382,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8376,16 +8399,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8393,16 +8416,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8410,16 +8433,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8427,16 +8450,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8444,16 +8467,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8461,16 +8484,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8478,16 +8501,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8495,16 +8518,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8512,16 +8535,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8529,16 +8552,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8546,16 +8569,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8563,16 +8586,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\44663\Degreeplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>CreditAbv</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Spring 2019</t>
   </si>
   <si>
-    <t>su19</t>
-  </si>
-  <si>
     <t>Summer 2019</t>
   </si>
   <si>
@@ -258,19 +255,7 @@
     <t>S20</t>
   </si>
   <si>
-    <t>Fall2018</t>
-  </si>
-  <si>
-    <t>Spring2019</t>
-  </si>
-  <si>
     <t>SU19</t>
-  </si>
-  <si>
-    <t>Summer2019</t>
-  </si>
-  <si>
-    <t>Fall2019</t>
   </si>
   <si>
     <t>S533908</t>
@@ -314,12 +299,27 @@
   <si>
     <t>FK: Term</t>
   </si>
+  <si>
+    <t>Su20</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Fall 2018</t>
+  </si>
+  <si>
+    <t>Spring 2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -337,6 +337,11 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -365,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -380,6 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1733,7 +1739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1748,7 +1756,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3017,7 +3025,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3031,13 +3039,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4556,7 +4564,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -5610,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E997"/>
+  <dimension ref="A1:E995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5628,10 +5636,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>
@@ -5640,7 +5648,7 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5694,6 +5702,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5">
+        <v>7254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -6672,8 +6699,6 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6684,8 +6709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6699,16 +6724,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>58</v>
@@ -7377,30 +7402,242 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7254</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>460</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7254</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>356</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7254</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>542</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7254</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>560</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7254</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>664</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7254</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7254</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>618</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7254</v>
+      </c>
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>691</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7254</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>692</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7254</v>
+      </c>
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7254</v>
+      </c>
+      <c r="C51" s="6">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>555</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7254</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>563</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7254</v>
+      </c>
+      <c r="C53" s="6">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -8339,7 +8576,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8347,8 +8584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8362,10 +8599,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -8472,11 +8709,11 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8493,7 +8730,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8507,7 +8744,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>67</v>
@@ -8526,8 +8763,8 @@
       <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
+      <c r="E10" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8543,8 +8780,8 @@
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
+      <c r="E11" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8558,10 +8795,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8577,8 +8814,8 @@
       <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>81</v>
+      <c r="E13" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8586,30 +8823,115 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Degree" sheetId="1" r:id="rId1"/>
-    <sheet name="Credit" sheetId="2" r:id="rId2"/>
-    <sheet name="DegreeCredit" sheetId="3" r:id="rId3"/>
-    <sheet name="Student" sheetId="5" r:id="rId4"/>
-    <sheet name="DegreePlan" sheetId="4" r:id="rId5"/>
-    <sheet name="Slot" sheetId="6" r:id="rId6"/>
-    <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
+    <sheet state="visible" name="Degree" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Credit" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="DegreeCredit" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="DegreePlan" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Student" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Slot" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="StudentTerm" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
+  <si>
+    <t>PK: CreditID</t>
+  </si>
+  <si>
+    <t>PK: DegreeID</t>
+  </si>
+  <si>
+    <t>PK: DegreeCreditID</t>
+  </si>
   <si>
     <t>CreditAbv</t>
   </si>
@@ -39,21 +40,27 @@
     <t>IsSpring</t>
   </si>
   <si>
+    <t>DegreeAbv</t>
+  </si>
+  <si>
     <t>IsFall</t>
   </si>
   <si>
+    <t>DegreeName</t>
+  </si>
+  <si>
+    <t>NumberOfTerms</t>
+  </si>
+  <si>
+    <t>FK: DegreeID</t>
+  </si>
+  <si>
+    <t>FK: CreditID</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
-    <t>DegreeAbv</t>
-  </si>
-  <si>
-    <t>DegreeName</t>
-  </si>
-  <si>
-    <t>NumberOfTerms</t>
-  </si>
-  <si>
     <t>ACS+2</t>
   </si>
   <si>
@@ -144,172 +151,190 @@
     <t>Elective2</t>
   </si>
   <si>
+    <t>PK: SlotID</t>
+  </si>
+  <si>
+    <t>PK: StudentID</t>
+  </si>
+  <si>
+    <t>PK: DegreePlanID</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>FK:DegreePlan</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>FK: Term</t>
+  </si>
+  <si>
+    <t>FK: StudentID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>DegreePlanAbv</t>
   </si>
   <si>
     <t>DegreePlanName</t>
   </si>
   <si>
+    <t>FK:DegreeID</t>
+  </si>
+  <si>
+    <t>Cheekoti</t>
+  </si>
+  <si>
+    <t>Vennela</t>
+  </si>
+  <si>
     <t>S533619</t>
   </si>
   <si>
     <t>Super Fast</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>As Fast as I can</t>
   </si>
   <si>
+    <t>Gade</t>
+  </si>
+  <si>
+    <t>Susritha</t>
+  </si>
+  <si>
+    <t>S533907</t>
+  </si>
+  <si>
+    <t>Gone</t>
+  </si>
+  <si>
+    <t>slow and Easy</t>
+  </si>
+  <si>
+    <t>Sathwika</t>
+  </si>
+  <si>
+    <t>As slow as I can</t>
+  </si>
+  <si>
     <t>S533623</t>
   </si>
   <si>
-    <t>S533907</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>Slow and Easy</t>
   </si>
   <si>
-    <t>Given</t>
-  </si>
-  <si>
-    <t>As slow as I can</t>
-  </si>
-  <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>Cheekoti</t>
-  </si>
-  <si>
-    <t>Vennela</t>
-  </si>
-  <si>
-    <t>Gade</t>
-  </si>
-  <si>
-    <t>Susritha</t>
-  </si>
-  <si>
-    <t>Gone</t>
-  </si>
-  <si>
-    <t>Sathwika</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PK: StudenTermID</t>
+  </si>
+  <si>
+    <t>FK:StudentID</t>
   </si>
   <si>
     <t>Term</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>TermAbv</t>
   </si>
   <si>
     <t>TermName</t>
   </si>
   <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>Fall  2019</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Spring 2020</t>
+  </si>
+  <si>
+    <t>Su20</t>
+  </si>
+  <si>
+    <t>Summer 2020</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>Fall 2020</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Spring 2018</t>
+  </si>
+  <si>
+    <t>Su18</t>
+  </si>
+  <si>
+    <t>Summer 2018(off)</t>
+  </si>
+  <si>
     <t>F18</t>
   </si>
   <si>
-    <t>Fall  2019</t>
+    <t>Fall 2018</t>
   </si>
   <si>
     <t>S19</t>
   </si>
   <si>
-    <t>Spring 2020</t>
+    <t>Spring 2019</t>
   </si>
   <si>
     <t>Su19</t>
   </si>
   <si>
-    <t>Summer 2020</t>
-  </si>
-  <si>
-    <t>F19</t>
-  </si>
-  <si>
-    <t>Fall 2020</t>
-  </si>
-  <si>
-    <t>Spring 2019</t>
-  </si>
-  <si>
     <t>Summer 2019</t>
   </si>
   <si>
+    <t>su19</t>
+  </si>
+  <si>
     <t>Fall 2019</t>
   </si>
   <si>
-    <t>S20</t>
+    <t>Fall2018</t>
+  </si>
+  <si>
+    <t>Spring2019</t>
   </si>
   <si>
     <t>SU19</t>
   </si>
   <si>
-    <t>S533908</t>
+    <t>Summer2019</t>
+  </si>
+  <si>
+    <t>Fall2019</t>
   </si>
   <si>
     <t>Spring2020</t>
   </si>
   <si>
-    <t>PK: DegreeID</t>
-  </si>
-  <si>
-    <t>PK: CreditID</t>
-  </si>
-  <si>
-    <t>PK: DegreeCreditID</t>
-  </si>
-  <si>
-    <t>FK: DegreeID</t>
-  </si>
-  <si>
-    <t>FK: CreditID</t>
-  </si>
-  <si>
-    <t>PK: StudentID</t>
-  </si>
-  <si>
-    <t>PK: DegreePlanID</t>
-  </si>
-  <si>
-    <t>FK: StudentID</t>
-  </si>
-  <si>
-    <t>PK: SlotID</t>
-  </si>
-  <si>
-    <t>FK: DegreePlan</t>
-  </si>
-  <si>
-    <t>PK: StudenTermID</t>
-  </si>
-  <si>
-    <t>FK: Term</t>
-  </si>
-  <si>
-    <t>Su20</t>
-  </si>
-  <si>
-    <t>F20</t>
-  </si>
-  <si>
     <t>S21</t>
-  </si>
-  <si>
-    <t>Fall 2018</t>
   </si>
   <si>
     <t>Spring 2021</t>
@@ -318,30 +343,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -349,7 +366,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -359,394 +376,169 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.71"/>
+    <col customWidth="1" min="2" max="2" width="12.86"/>
+    <col customWidth="1" min="3" max="3" width="13.86"/>
+    <col customWidth="1" min="4" max="4" width="17.14"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>79</v>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1730,308 +1522,292 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
+    <col customWidth="1" min="2" max="2" width="11.29"/>
+    <col customWidth="1" min="3" max="3" width="24.14"/>
+    <col customWidth="1" min="4" max="4" width="12.86"/>
+    <col customWidth="1" min="5" max="5" width="15.43"/>
+    <col customWidth="1" min="6" max="6" width="12.57"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>80</v>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>460</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>460.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>356</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>356.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>542</v>
+        <v>542.0</v>
       </c>
       <c r="B4">
-        <v>542</v>
+        <v>542.0</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>563</v>
+        <v>563.0</v>
       </c>
       <c r="B5">
-        <v>563</v>
+        <v>563.0</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>560</v>
+        <v>560.0</v>
       </c>
       <c r="B6">
-        <v>560</v>
+        <v>560.0</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>664</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>664.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>618</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>618.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>555</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>555.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>691</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>691.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>692</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>692.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>64</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>64.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>20.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3015,592 +2791,586 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.86"/>
+    <col customWidth="1" min="2" max="2" width="13.57"/>
+    <col customWidth="1" min="3" max="3" width="15.0"/>
+    <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>460.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>356.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>542.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>563.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>560.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>664.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>618.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>555.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>691.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C11">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>692.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C15">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>16</v>
+        <v>460.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B16">
+        <v>2.0</v>
+      </c>
+      <c r="C16">
+        <v>542.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>17.0</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C17">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>17</v>
+        <v>563.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>18.0</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C18">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>18</v>
+        <v>560.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>19.0</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C19">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>19</v>
+        <v>664.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>20.0</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C20">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>20</v>
+        <v>618.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>21.0</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C21">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="2">
-        <v>21</v>
+        <v>555.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>22.0</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C22">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
-        <v>22</v>
+        <v>691.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>23.0</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C23">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>23</v>
+        <v>692.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>24.0</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C24">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
-        <v>24</v>
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>25.0</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="2">
-        <v>25</v>
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>26.0</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="2">
-        <v>26</v>
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>15.0</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3.0</v>
       </c>
       <c r="C27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="2">
-        <v>15</v>
+        <v>356.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28">
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C28">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+        <v>542.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29">
-        <v>27</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C29">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+        <v>563.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30">
-        <v>28</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C30">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+        <v>560.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31">
-        <v>29</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C31">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+        <v>664.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32">
-        <v>30</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C32">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+        <v>618.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33">
-        <v>31</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C33">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+        <v>555.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34">
-        <v>32</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C34">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+        <v>691.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35">
-        <v>33</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C35">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+        <v>692.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36">
-        <v>34</v>
+        <v>35.0</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C36">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37">
-        <v>35</v>
+        <v>36.0</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C37">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38">
-        <v>36</v>
+        <v>37.0</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39">
-        <v>37</v>
+        <v>38.0</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>4.0</v>
       </c>
       <c r="C39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+        <v>542.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40">
-        <v>38</v>
+        <v>39.0</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C40">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+        <v>563.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41">
-        <v>39</v>
+        <v>40.0</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C41">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+        <v>560.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42">
-        <v>40</v>
+        <v>41.0</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C42">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+        <v>664.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43">
-        <v>41</v>
+        <v>42.0</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C43">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+        <v>618.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44">
-        <v>42</v>
+        <v>43.0</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C44">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+        <v>555.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45">
-        <v>43</v>
+        <v>44.0</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C45">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+        <v>691.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46">
-        <v>44</v>
+        <v>45.0</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C46">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+        <v>692.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47">
-        <v>45</v>
+        <v>46.0</v>
       </c>
       <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+        <v>4.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C49">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4537,37 +4307,1163 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.71"/>
+    <col customWidth="1" min="2" max="2" width="15.14"/>
+    <col customWidth="1" min="3" max="3" width="16.0"/>
+    <col customWidth="1" min="4" max="4" width="23.0"/>
+    <col customWidth="1" min="5" max="5" width="13.86"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>84</v>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>7251.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>533623.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>7255.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>533623.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.43"/>
+    <col customWidth="1" min="2" max="2" width="13.71"/>
+    <col customWidth="1" min="3" max="3" width="14.57"/>
+    <col customWidth="1" min="4" max="4" width="17.57"/>
+    <col customWidth="1" min="5" max="5" width="15.14"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
@@ -4576,58 +5472,58 @@
         <v>50</v>
       </c>
       <c r="E1">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2">
-        <v>919568817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2">
-        <v>919570703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2">
-        <v>919568816</v>
+        <v>919.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.19568817E8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.19570703E8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>533623.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.19568816E8</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5611,2048 +6507,1373 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E995"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>7251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>7253</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>7255</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5">
-        <v>7254</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="12.0"/>
+    <col customWidth="1" min="2" max="2" width="19.14"/>
+    <col customWidth="1" min="3" max="3" width="9.29"/>
+    <col customWidth="1" min="4" max="4" width="11.29"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>460</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>460.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>542</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>542.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>563</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>563.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>356</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>356.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D6">
-        <v>643</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>643.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>664</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>664.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>7251</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>560</v>
+        <v>7251.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>560.0</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>618</v>
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>618.0</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>7251</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>691</v>
+        <v>7251.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>691.0</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>555</v>
+        <v>4.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>555.0</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>692</v>
+        <v>4.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>692.0</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7251</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7251</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>460</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7251.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7251.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>460.0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0</v>
       </c>
       <c r="D16">
-        <v>356</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
+        <v>356.0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.0</v>
       </c>
       <c r="D17">
-        <v>542</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
+        <v>542.0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0</v>
       </c>
       <c r="D18">
-        <v>563</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>560</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>618</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>664</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5">
-        <v>555</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5">
-        <v>691</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5">
-        <v>692</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5">
-        <v>643</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>7253</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5">
-        <v>20</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
+        <v>563.0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>560.0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>618.0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>664.0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>555.0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>691.0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>692.0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>643.0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7253.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.0</v>
       </c>
       <c r="D28">
-        <v>356</v>
-      </c>
-      <c r="E28" s="2" t="s">
+        <v>356.0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D29">
+        <v>542.0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D30">
+        <v>563.0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D31">
+        <v>460.0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D32">
+        <v>560.0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D33">
+        <v>664.0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D34">
+        <v>64.0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>618.0</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>542</v>
-      </c>
-      <c r="E29" s="2" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>691.0</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>563</v>
-      </c>
-      <c r="E30" s="2" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>460</v>
-      </c>
-      <c r="E31" s="2" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>555.0</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>560</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>664</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>64</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>618</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3">
-        <v>691</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>555</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3">
-        <v>20</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>7255</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>692</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>7254</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>460</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>7254</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1</v>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="9">
+        <v>7255.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>692.0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D41">
+        <v>460.0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.0</v>
       </c>
       <c r="D42">
-        <v>356</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>7254</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
+        <v>356.0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.0</v>
       </c>
       <c r="D43">
-        <v>542</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>7254</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2</v>
+        <v>542.0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
       </c>
       <c r="D44">
-        <v>560</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>7254</v>
-      </c>
-      <c r="C45" s="6">
-        <v>2</v>
+        <v>563.0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.0</v>
       </c>
       <c r="D45">
-        <v>664</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>7254</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2</v>
+        <v>560.0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.0</v>
       </c>
       <c r="D46">
-        <v>10</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>7254</v>
-      </c>
-      <c r="C47" s="6">
-        <v>3</v>
+        <v>64.0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.0</v>
       </c>
       <c r="D47">
-        <v>618</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>7254</v>
-      </c>
-      <c r="C48" s="6">
-        <v>3</v>
+        <v>555.0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.0</v>
       </c>
       <c r="D48">
-        <v>691</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>7254</v>
-      </c>
-      <c r="C49" s="6">
-        <v>4</v>
+        <v>618.0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.0</v>
       </c>
       <c r="D49">
-        <v>692</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>7254</v>
-      </c>
-      <c r="C50" s="6">
-        <v>4</v>
+        <v>691.0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4.0</v>
       </c>
       <c r="D50">
-        <v>20</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>7254</v>
-      </c>
-      <c r="C51" s="6">
-        <v>4</v>
+        <v>10.0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4.0</v>
       </c>
       <c r="D51">
-        <v>555</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>7254</v>
-      </c>
-      <c r="C52" s="6">
-        <v>5</v>
+        <v>20.0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.0</v>
       </c>
       <c r="D52">
-        <v>563</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>7254</v>
-      </c>
-      <c r="C53" s="6">
-        <v>5</v>
+        <v>664.0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7257.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4.0</v>
       </c>
       <c r="D53">
-        <v>64</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
+        <v>692.0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>460.0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>356.0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>542.0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>563.0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>692.0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>560.0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>555.0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>643.0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>664.0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>691.0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>7258.0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>618.0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B67" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>460.0</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B68" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C68" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>356.0</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B69" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>542.0</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B70" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>560.0</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C71" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>664.0</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B72" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C72" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C73" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>618.0</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B74" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C74" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>691.0</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B75" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C75" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>692.0</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B76" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C76" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B77" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C77" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>555.0</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B78" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C78" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>563.0</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B79" s="3">
+        <v>7254.0</v>
+      </c>
+      <c r="C79" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
@@ -8572,366 +8793,511 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="13.43"/>
+    <col customWidth="1" min="3" max="4" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="17.43"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C2">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C3">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C4">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C5">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>533619.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>533623.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>533623.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>533623.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>533623.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>533907.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>533623.0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>533623.0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>533623.0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="10">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>533623.0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="10">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>533623.0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9900,8 +10266,15 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\44663\Degreeplan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="6"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Degree" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Credit" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="DegreeCredit" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="DegreePlan" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Student" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Slot" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="StudentTerm" sheetId="7" r:id="rId9"/>
+    <sheet name="Degree" sheetId="1" r:id="rId1"/>
+    <sheet name="Credit" sheetId="2" r:id="rId2"/>
+    <sheet name="DegreeCredit" sheetId="3" r:id="rId3"/>
+    <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
+    <sheet name="Student" sheetId="5" r:id="rId5"/>
+    <sheet name="Slot" sheetId="6" r:id="rId6"/>
+    <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>PK: CreditID</t>
   </si>
@@ -40,24 +48,24 @@
     <t>IsSpring</t>
   </si>
   <si>
+    <t>IsFall</t>
+  </si>
+  <si>
     <t>DegreeAbv</t>
   </si>
   <si>
-    <t>IsFall</t>
+    <t>FK: DegreeID</t>
   </si>
   <si>
     <t>DegreeName</t>
   </si>
   <si>
+    <t>FK: CreditID</t>
+  </si>
+  <si>
     <t>NumberOfTerms</t>
   </si>
   <si>
-    <t>FK: DegreeID</t>
-  </si>
-  <si>
-    <t>FK: CreditID</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -151,45 +159,63 @@
     <t>Elective2</t>
   </si>
   <si>
+    <t>PK: DegreePlanID</t>
+  </si>
+  <si>
+    <t>FK: StudentID</t>
+  </si>
+  <si>
+    <t>DegreePlanAbv</t>
+  </si>
+  <si>
+    <t>DegreePlanName</t>
+  </si>
+  <si>
+    <t>FK:DegreeID</t>
+  </si>
+  <si>
+    <t>Super Fast</t>
+  </si>
+  <si>
+    <t>As Fast as I can</t>
+  </si>
+  <si>
+    <t>slow and Easy</t>
+  </si>
+  <si>
+    <t>As slow as I can</t>
+  </si>
+  <si>
+    <t>Slow and Easy</t>
+  </si>
+  <si>
     <t>PK: SlotID</t>
   </si>
   <si>
+    <t>FK:DegreePlan</t>
+  </si>
+  <si>
+    <t>FK: Term</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>PK: StudentID</t>
   </si>
   <si>
-    <t>PK: DegreePlanID</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
     <t>Given</t>
   </si>
   <si>
-    <t>FK:DegreePlan</t>
-  </si>
-  <si>
     <t>SID</t>
   </si>
   <si>
-    <t>FK: Term</t>
-  </si>
-  <si>
-    <t>FK: StudentID</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>DegreePlanAbv</t>
-  </si>
-  <si>
-    <t>DegreePlanName</t>
-  </si>
-  <si>
-    <t>FK:DegreeID</t>
-  </si>
-  <si>
     <t>Cheekoti</t>
   </si>
   <si>
@@ -199,15 +225,6 @@
     <t>S533619</t>
   </si>
   <si>
-    <t>Super Fast</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>As Fast as I can</t>
-  </si>
-  <si>
     <t>Gade</t>
   </si>
   <si>
@@ -220,21 +237,12 @@
     <t>Gone</t>
   </si>
   <si>
-    <t>slow and Easy</t>
-  </si>
-  <si>
     <t>Sathwika</t>
   </si>
   <si>
-    <t>As slow as I can</t>
-  </si>
-  <si>
     <t>S533623</t>
   </si>
   <si>
-    <t>Slow and Easy</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -256,10 +264,40 @@
     <t>TermName</t>
   </si>
   <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Spring 2018</t>
+  </si>
+  <si>
+    <t>Su18</t>
+  </si>
+  <si>
+    <t>Summer 2018</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>Fall 2018</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Spring 2019</t>
+  </si>
+  <si>
+    <t>Su19</t>
+  </si>
+  <si>
+    <t>Summer 2019</t>
+  </si>
+  <si>
     <t>F19</t>
   </si>
   <si>
-    <t>Fall  2019</t>
+    <t>Fall 2019</t>
   </si>
   <si>
     <t>S20</t>
@@ -280,40 +318,10 @@
     <t>Fall 2020</t>
   </si>
   <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Spring 2018</t>
-  </si>
-  <si>
-    <t>Su18</t>
-  </si>
-  <si>
-    <t>Summer 2018(off)</t>
-  </si>
-  <si>
-    <t>F18</t>
-  </si>
-  <si>
-    <t>Fall 2018</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Spring 2019</t>
-  </si>
-  <si>
-    <t>Su19</t>
-  </si>
-  <si>
-    <t>Summer 2019</t>
-  </si>
-  <si>
-    <t>su19</t>
-  </si>
-  <si>
-    <t>Fall 2019</t>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Spring 2021</t>
   </si>
   <si>
     <t>Fall2018</t>
@@ -332,176 +340,436 @@
   </si>
   <si>
     <t>Spring2020</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Spring 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="13.86"/>
-    <col customWidth="1" min="4" max="4" width="17.14"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -510,12 +778,12 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -524,12 +792,12 @@
         <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -538,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>5.0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1522,33 +1790,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="11.29"/>
-    <col customWidth="1" min="3" max="3" width="24.14"/>
-    <col customWidth="1" min="4" max="4" width="12.86"/>
-    <col customWidth="1" min="5" max="5" width="15.43"/>
-    <col customWidth="1" min="6" max="6" width="12.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,12 +1829,12 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1579,18 +1843,18 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -1599,78 +1863,78 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="B4">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="B5">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="B6">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
@@ -1679,18 +1943,18 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
@@ -1699,18 +1963,18 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -1719,18 +1983,18 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -1739,18 +2003,18 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -1759,18 +2023,18 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>38</v>
@@ -1779,18 +2043,18 @@
         <v>39</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
@@ -1799,9 +2063,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>42</v>
@@ -2791,586 +3055,582 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.86"/>
-    <col customWidth="1" min="2" max="2" width="13.57"/>
-    <col customWidth="1" min="3" max="3" width="15.0"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.0</v>
-      </c>
-      <c r="B2">
-        <v>1.0</v>
-      </c>
-      <c r="C2">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2.0</v>
-      </c>
-      <c r="B3">
-        <v>1.0</v>
-      </c>
-      <c r="C3">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3.0</v>
-      </c>
-      <c r="B4">
-        <v>1.0</v>
-      </c>
-      <c r="C4">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4.0</v>
-      </c>
-      <c r="B5">
-        <v>1.0</v>
-      </c>
-      <c r="C5">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5.0</v>
-      </c>
-      <c r="B6">
-        <v>1.0</v>
-      </c>
-      <c r="C6">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6.0</v>
-      </c>
-      <c r="B7">
-        <v>1.0</v>
-      </c>
-      <c r="C7">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7.0</v>
-      </c>
-      <c r="B8">
-        <v>1.0</v>
-      </c>
-      <c r="C8">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8.0</v>
-      </c>
-      <c r="B9">
-        <v>1.0</v>
-      </c>
-      <c r="C9">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9.0</v>
-      </c>
-      <c r="B10">
-        <v>1.0</v>
-      </c>
-      <c r="C10">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10.0</v>
-      </c>
-      <c r="B11">
-        <v>1.0</v>
-      </c>
-      <c r="C11">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11.0</v>
-      </c>
-      <c r="B12">
-        <v>1.0</v>
-      </c>
-      <c r="C12">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12.0</v>
-      </c>
-      <c r="B13">
-        <v>1.0</v>
-      </c>
-      <c r="C13">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13.0</v>
-      </c>
-      <c r="B14">
-        <v>1.0</v>
-      </c>
-      <c r="C14">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4308,148 +4568,146 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="2" width="15.14"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="5" width="13.86"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="A2" s="8">
+        <v>7251</v>
+      </c>
+      <c r="B2" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1">
+      <c r="A3" s="8">
+        <v>7258</v>
+      </c>
+      <c r="B3" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>7251.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>533623.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>7255.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>533623.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>71</v>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1">
+      <c r="A4" s="5">
+        <v>7253</v>
+      </c>
+      <c r="B4" s="5">
+        <v>533623</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1">
+      <c r="A5" s="7">
+        <v>7255</v>
+      </c>
+      <c r="B5" s="7">
+        <v>533907</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1">
+      <c r="A6" s="7">
+        <v>7257</v>
+      </c>
+      <c r="B6" s="7">
+        <v>533907</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="A7" s="9">
+        <v>7254</v>
+      </c>
+      <c r="B7" s="5">
+        <v>533623</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.0</v>
+        <v>52</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5433,97 +5691,95 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="13.71"/>
-    <col customWidth="1" min="3" max="3" width="14.57"/>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="5" width="15.14"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E1">
-        <v>919.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9.19568817E8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="A2" s="8">
+        <v>533619</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1">
-        <v>9.19570703E8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>533623.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E2" s="8">
+        <v>919568817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1">
+      <c r="A3" s="7">
+        <v>533907</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E3" s="7">
+        <v>919570703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1">
+      <c r="A4" s="5">
+        <v>533623</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="1">
-        <v>9.19568816E8</v>
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5">
+        <v>919568816</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6507,1374 +6763,1372 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="9.29"/>
-    <col customWidth="1" min="4" max="4" width="11.29"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>460</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>542</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>563</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>356</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>643</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>664</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>560</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>618</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>691</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>555</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>692</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>460</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>356</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>542</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>563</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>560</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>618</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9">
+        <v>664</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>555</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>691</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9">
+        <v>692</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>643</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>356</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>542</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>563</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>460</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>560</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>664</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>64</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3</v>
+      </c>
+      <c r="D35" s="10">
+        <v>618</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C36" s="7">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10">
+        <v>691</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="10">
+        <v>10</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10">
+        <v>555</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C40" s="7">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
+        <v>692</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>460</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>356</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>542</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>563</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B45" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>560</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>64</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>555</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>618</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7">
+        <v>691</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B50" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
+        <v>10</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C51" s="7">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>20</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B52" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C52" s="7">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>664</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>692</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.0</v>
-      </c>
-      <c r="B2">
-        <v>7251.0</v>
-      </c>
-      <c r="C2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>460.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B54" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>460</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>356</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>542</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>563</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A58" s="8">
+        <v>59</v>
+      </c>
+      <c r="B58" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>691</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="8">
+        <v>60</v>
+      </c>
+      <c r="B59" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+      <c r="D59" s="8">
+        <v>618</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="8">
         <v>61</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2.0</v>
-      </c>
-      <c r="B3">
-        <v>7251.0</v>
-      </c>
-      <c r="C3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>542.0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3.0</v>
-      </c>
-      <c r="B4">
-        <v>7251.0</v>
-      </c>
-      <c r="C4">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>563.0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4.0</v>
-      </c>
-      <c r="B5">
-        <v>7251.0</v>
-      </c>
-      <c r="C5">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>356.0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5.0</v>
-      </c>
-      <c r="B6">
-        <v>7251.0</v>
-      </c>
-      <c r="C6">
-        <v>2.0</v>
-      </c>
-      <c r="D6">
-        <v>643.0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6.0</v>
-      </c>
-      <c r="B7">
-        <v>7251.0</v>
-      </c>
-      <c r="C7">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>664.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7.0</v>
-      </c>
-      <c r="B8">
-        <v>7251.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8.0</v>
-      </c>
-      <c r="B9">
-        <v>7251.0</v>
-      </c>
-      <c r="C9">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>618.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9.0</v>
-      </c>
-      <c r="B10">
-        <v>7251.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>691.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10.0</v>
-      </c>
-      <c r="B11">
-        <v>7251.0</v>
-      </c>
-      <c r="C11">
-        <v>4.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>555.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11.0</v>
-      </c>
-      <c r="B12">
-        <v>7251.0</v>
-      </c>
-      <c r="C12">
-        <v>4.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>692.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7251.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7251.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>460.0</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="B60" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C60" s="8">
+        <v>3</v>
+      </c>
+      <c r="D60" s="8">
+        <v>692</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="8">
+        <v>62</v>
+      </c>
+      <c r="B61" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C61" s="8">
+        <v>3</v>
+      </c>
+      <c r="D61" s="8">
+        <v>560</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>356.0</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    <row r="62" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="8">
+        <v>63</v>
+      </c>
+      <c r="B62" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C62" s="8">
+        <v>4</v>
+      </c>
+      <c r="D62" s="8">
+        <v>555</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D17">
-        <v>542.0</v>
-      </c>
-      <c r="E17" s="1" t="s">
+    <row r="63" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A63" s="8">
+        <v>64</v>
+      </c>
+      <c r="B63" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C63" s="8">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8">
+        <v>643</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>563.0</v>
-      </c>
-      <c r="E18" s="1" t="s">
+    <row r="64" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="8">
+        <v>65</v>
+      </c>
+      <c r="B64" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C64" s="8">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8">
+        <v>20</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>560.0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>618.0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>664.0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>555.0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>691.0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>692.0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>643.0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7253.0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D27" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D28">
-        <v>356.0</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    <row r="65" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="8">
+        <v>66</v>
+      </c>
+      <c r="B65" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C65" s="8">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
+        <v>10</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="8">
+        <v>67</v>
+      </c>
+      <c r="B66" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C66" s="8">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8">
+        <v>664</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="5">
+        <v>68</v>
+      </c>
+      <c r="B67" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
+      <c r="D67" s="9">
+        <v>460</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="5">
+        <v>69</v>
+      </c>
+      <c r="B68" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="9">
+        <v>356</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="5">
+        <v>70</v>
+      </c>
+      <c r="B69" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+      <c r="D69" s="9">
+        <v>542</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A70" s="5">
+        <v>71</v>
+      </c>
+      <c r="B70" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C70" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" s="9">
+        <v>560</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A71" s="5">
+        <v>72</v>
+      </c>
+      <c r="B71" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C71" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" s="9">
+        <v>664</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D29">
-        <v>542.0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D30">
-        <v>563.0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D31">
-        <v>460.0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D32">
-        <v>560.0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D33">
-        <v>664.0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D34">
-        <v>64.0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D35" s="9">
-        <v>618.0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>691.0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>555.0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="9">
-        <v>7255.0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>692.0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D41">
-        <v>460.0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D42">
-        <v>356.0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D43">
-        <v>542.0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D44">
-        <v>563.0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D45">
-        <v>560.0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D46">
-        <v>64.0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D47">
-        <v>555.0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D48">
-        <v>618.0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D49">
-        <v>691.0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D50">
-        <v>10.0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D51">
-        <v>20.0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D52">
-        <v>664.0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>7257.0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D53">
-        <v>692.0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>460.0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>356.0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>542.0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>563.0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>692.0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1">
-        <v>62.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>555.0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>643.0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D64" s="1">
-        <v>664.0</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C65" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D65" s="1">
-        <v>691.0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>7258.0</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D66" s="1">
-        <v>618.0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="1">
-        <v>69.0</v>
-      </c>
-      <c r="B67" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C67" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="6">
-        <v>460.0</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="B68" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C68" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="3">
-        <v>356.0</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="B69" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C69" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D69" s="3">
-        <v>542.0</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="B70" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C70" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D70" s="3">
-        <v>560.0</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="B71" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C71" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D71" s="3">
-        <v>664.0</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B72" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C72" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D72" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="B73" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C73" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D73" s="3">
-        <v>618.0</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="1">
-        <v>76.0</v>
-      </c>
-      <c r="B74" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C74" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D74" s="3">
-        <v>691.0</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B75" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C75" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D75" s="3">
-        <v>692.0</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="B76" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C76" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D76" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="B77" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C77" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D77" s="3">
-        <v>555.0</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="B78" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C78" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D78" s="3">
-        <v>563.0</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="B79" s="3">
-        <v>7254.0</v>
-      </c>
-      <c r="C79" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D79" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1"/>
+      <c r="B72" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="5">
+        <v>74</v>
+      </c>
+      <c r="B73" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C73" s="9">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9">
+        <v>618</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="5">
+        <v>75</v>
+      </c>
+      <c r="B74" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C74" s="9">
+        <v>3</v>
+      </c>
+      <c r="D74" s="9">
+        <v>691</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="5">
+        <v>76</v>
+      </c>
+      <c r="B75" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C75" s="9">
+        <v>4</v>
+      </c>
+      <c r="D75" s="9">
+        <v>692</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="5">
+        <v>77</v>
+      </c>
+      <c r="B76" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C76" s="9">
+        <v>4</v>
+      </c>
+      <c r="D76" s="9">
+        <v>20</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="5">
+        <v>78</v>
+      </c>
+      <c r="B77" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C77" s="9">
+        <v>4</v>
+      </c>
+      <c r="D77" s="9">
+        <v>555</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="5">
+        <v>79</v>
+      </c>
+      <c r="B78" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C78" s="9">
+        <v>5</v>
+      </c>
+      <c r="D78" s="9">
+        <v>563</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="5">
+        <v>80</v>
+      </c>
+      <c r="B79" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C79" s="9">
+        <v>5</v>
+      </c>
+      <c r="D79" s="9">
+        <v>64</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -8794,31 +9048,29 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="13.43"/>
-    <col customWidth="1" min="3" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="17.43"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -8835,469 +9087,303 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C3">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:5" s="8" customFormat="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C4">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:5" s="8" customFormat="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C5">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="1:5" s="8" customFormat="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:5" s="8" customFormat="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="1:5" s="8" customFormat="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>533619</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:5" s="5" customFormat="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>533623</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>533623</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="10" spans="1:5" s="5" customFormat="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>533623</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>533619.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="1:5" s="5" customFormat="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>533623</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>533623.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>533623.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="12" spans="1:5" s="5" customFormat="1">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>533623</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>533623.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>533623.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="13" spans="1:5" s="7" customFormat="1">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>533907</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>533907</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="7" customFormat="1">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>533907</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>533907</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="7" customFormat="1">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>533907</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>533907.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="10">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="5">
-        <v>533623.0</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="10">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="5">
-        <v>533623.0</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="5">
-        <v>533623.0</v>
-      </c>
-      <c r="C26" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="5">
-        <v>533623.0</v>
-      </c>
-      <c r="C27" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="10">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="5">
-        <v>533623.0</v>
-      </c>
-      <c r="C28" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -10265,16 +10351,8 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Slot" sheetId="6" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
   <si>
     <t>PK: CreditID</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Spring2020</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,6 +442,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
@@ -724,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -736,10 +740,11 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="79.5703125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -752,8 +757,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1">
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -766,8 +774,12 @@
       <c r="D2" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4" t="str">
+        <f>" new Degree{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'},"</f>
+        <v xml:space="preserve"> new Degree{PK: DegreeID = 1 , DegreeAbv = 'ACS+2' , DegreeName = 'MS ACS +2'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -780,8 +792,12 @@
       <c r="D3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="11" t="str">
+        <f t="shared" ref="E3:E5" si="0">" new Degree{"&amp;$A$1&amp;" = "&amp;A3 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B3&amp;"' , "&amp;$C$1&amp;" = '" &amp;C3&amp;"'},"</f>
+        <v xml:space="preserve"> new Degree{PK: DegreeID = 2 , DegreeAbv = 'ACS+DB(U,10)' , DegreeName = 'MS ACS+ DB'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -794,8 +810,12 @@
       <c r="D4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Degree{PK: DegreeID = 3 , DegreeAbv = 'ACS+NF' , DegreeName = 'MS ACS + NF'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -807,6 +827,10 @@
       </c>
       <c r="D5" s="1">
         <v>6</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Degree{PK: DegreeID = 4 , DegreeAbv = 'ACS' , DegreeName = 'MS ACS '},</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9057,7 +9081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
   <si>
     <t>PK: CreditID</t>
   </si>
@@ -207,12 +207,6 @@
     <t>PK: StudentID</t>
   </si>
   <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Given</t>
-  </si>
-  <si>
     <t>SID</t>
   </si>
   <si>
@@ -343,6 +337,15 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>CatPawsID</t>
+  </si>
+  <si>
+    <t>GivenName</t>
+  </si>
+  <si>
+    <t>FamilyName</t>
   </si>
 </sst>
 </file>
@@ -730,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -5724,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5743,16 +5746,16 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1">
-        <v>919</v>
+      <c r="E1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1">
@@ -5760,13 +5763,13 @@
         <v>533619</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E2" s="8">
         <v>919568817</v>
@@ -5777,13 +5780,13 @@
         <v>533907</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="E3" s="7">
         <v>919570703</v>
@@ -5794,13 +5797,13 @@
         <v>533623</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="5">
         <v>919568816</v>
@@ -7061,7 +7064,7 @@
         <v>460</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1">
@@ -7078,7 +7081,7 @@
         <v>356</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1">
@@ -7095,7 +7098,7 @@
         <v>542</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1">
@@ -7112,7 +7115,7 @@
         <v>563</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1">
@@ -7282,7 +7285,7 @@
         <v>356</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7299,7 +7302,7 @@
         <v>542</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7316,7 +7319,7 @@
         <v>563</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7333,7 +7336,7 @@
         <v>460</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7350,7 +7353,7 @@
         <v>560</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7367,7 +7370,7 @@
         <v>664</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7384,7 +7387,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7503,7 +7506,7 @@
         <v>460</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7520,7 +7523,7 @@
         <v>356</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7537,7 +7540,7 @@
         <v>542</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7554,7 +7557,7 @@
         <v>563</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7571,7 +7574,7 @@
         <v>560</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7588,7 +7591,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7605,7 +7608,7 @@
         <v>555</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7724,7 +7727,7 @@
         <v>460</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7741,7 +7744,7 @@
         <v>356</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7758,7 +7761,7 @@
         <v>542</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7775,7 +7778,7 @@
         <v>563</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7792,7 +7795,7 @@
         <v>691</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7809,7 +7812,7 @@
         <v>618</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7826,7 +7829,7 @@
         <v>692</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7843,7 +7846,7 @@
         <v>560</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7860,7 +7863,7 @@
         <v>555</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7877,7 +7880,7 @@
         <v>643</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7894,7 +7897,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -7945,7 +7948,7 @@
         <v>460</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
@@ -7962,7 +7965,7 @@
         <v>356</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
@@ -7979,7 +7982,7 @@
         <v>542</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
@@ -9096,19 +9099,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1">
@@ -9122,10 +9125,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1">
@@ -9139,10 +9142,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1">
@@ -9156,10 +9159,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1">
@@ -9173,10 +9176,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1">
@@ -9190,10 +9193,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1">
@@ -9207,10 +9210,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1">
@@ -9224,10 +9227,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1">
@@ -9241,10 +9244,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1">
@@ -9258,10 +9261,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1">
@@ -9275,10 +9278,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1">
@@ -9292,10 +9295,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1">
@@ -9309,10 +9312,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1">
@@ -9326,10 +9329,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1">
@@ -9343,10 +9346,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1">
@@ -9360,10 +9363,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1">
@@ -9377,10 +9380,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
     <sheet name="Credit" sheetId="2" r:id="rId2"/>
     <sheet name="DegreeCredit" sheetId="3" r:id="rId3"/>
-    <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
-    <sheet name="Student" sheetId="5" r:id="rId5"/>
-    <sheet name="Slot" sheetId="6" r:id="rId6"/>
-    <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
+    <sheet name="Student" sheetId="5" r:id="rId4"/>
+    <sheet name="DegreePlan" sheetId="4" r:id="rId5"/>
+    <sheet name="StudentTerm" sheetId="7" r:id="rId6"/>
+    <sheet name="Slot" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
   <si>
     <t>PK: CreditID</t>
   </si>
@@ -195,9 +195,6 @@
     <t>FK:DegreePlan</t>
   </si>
   <si>
-    <t>FK: Term</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -346,6 +343,12 @@
   </si>
   <si>
     <t>FamilyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK:Term</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -761,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -778,8 +781,8 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>" new Degree{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'},"</f>
-        <v xml:space="preserve"> new Degree{PK: DegreeID = 1 , DegreeAbv = 'ACS+2' , DegreeName = 'MS ACS +2'},</v>
+        <f>" new Credit{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'},"</f>
+        <v xml:space="preserve"> new Credit{PK: DegreeID = 1 , DegreeAbv = 'ACS+2' , DegreeName = 'MS ACS +2'},</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -796,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="11" t="str">
-        <f t="shared" ref="E3:E5" si="0">" new Degree{"&amp;$A$1&amp;" = "&amp;A3 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B3&amp;"' , "&amp;$C$1&amp;" = '" &amp;C3&amp;"'},"</f>
+        <f>" new Degree{"&amp;$A$1&amp;" = "&amp;A3 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B3&amp;"' , "&amp;$C$1&amp;" = '" &amp;C3&amp;"'},"</f>
         <v xml:space="preserve"> new Degree{PK: DegreeID = 2 , DegreeAbv = 'ACS+DB(U,10)' , DegreeName = 'MS ACS+ DB'},</v>
       </c>
     </row>
@@ -814,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E5" si="0">" new Degree{"&amp;$A$1&amp;" = "&amp;A4 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B4&amp;"' , "&amp;$C$1&amp;" = '" &amp;C4&amp;"'},"</f>
         <v xml:space="preserve"> new Degree{PK: DegreeID = 3 , DegreeAbv = 'ACS+NF' , DegreeName = 'MS ACS + NF'},</v>
       </c>
     </row>
@@ -1824,9 +1827,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1836,10 +1841,11 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="117.5703125" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,8 +1864,11 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>460</v>
       </c>
@@ -1878,8 +1887,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="str">
+        <f>" new Credit{"&amp;$A$1&amp;" ="&amp;A2&amp;" , "&amp;$B$1&amp;" ="&amp;B2&amp;" , "&amp;$C$1&amp;" ="&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;", "&amp;$E$1&amp;" ="&amp;E2&amp;" , "&amp;$F$1&amp;" , "&amp;F2&amp;"}"</f>
+        <v xml:space="preserve"> new Credit{PK: CreditID =460 , CreditAbv =DB , CreditName =Databases , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>356</v>
       </c>
@@ -1898,8 +1911,12 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G14" si="0">" new Credit{"&amp;$A$1&amp;" ="&amp;A3&amp;" , "&amp;$B$1&amp;" ="&amp;B3&amp;" , "&amp;$C$1&amp;" ="&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;", "&amp;$E$1&amp;" ="&amp;E3&amp;" , "&amp;$F$1&amp;" , "&amp;F3&amp;"}"</f>
+        <v xml:space="preserve"> new Credit{PK: CreditID =356 , CreditAbv =NF , CreditName =Network Fundamentals , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>542</v>
       </c>
@@ -1918,8 +1935,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =542 , CreditAbv =542 , CreditName =OOP with java , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>563</v>
       </c>
@@ -1938,8 +1959,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =563 , CreditAbv =563 , CreditName =Web apps , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>560</v>
       </c>
@@ -1958,8 +1983,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =560 , CreditAbv =560 , CreditName =Advanced Databses , IsSummer =1, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>664</v>
       </c>
@@ -1978,8 +2007,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =664 , CreditAbv =664-UX , CreditName =User Experience Design , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>618</v>
       </c>
@@ -1998,8 +2031,12 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =618 , CreditAbv =618-PM , CreditName =Project management , IsSummer =1, IsSpring =0 , IsFall , 0}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>555</v>
       </c>
@@ -2018,8 +2055,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =555 , CreditAbv =555-NS , CreditName =Network Security , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>691</v>
       </c>
@@ -2038,8 +2079,12 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =691 , CreditAbv =691-GDP1 , CreditName =GDP1 , IsSummer =1, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>692</v>
       </c>
@@ -2058,8 +2103,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =692 , CreditAbv =692-GDP2 , CreditName =GDP2 , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>64</v>
       </c>
@@ -2078,8 +2127,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =64 , CreditAbv =Mobile , CreditName =643 or 644 mobile , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2089,8 +2142,21 @@
       <c r="C13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =10 , CreditAbv =E1 , CreditName =Elective1 , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>20</v>
       </c>
@@ -2099,6 +2165,19 @@
       </c>
       <c r="C14" t="s">
         <v>43</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{PK: CreditID =20 , CreditAbv =E2 , CreditName =Elective2 , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4602,6 +4681,1078 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="A2" s="8">
+        <v>533619</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="8">
+        <v>919568817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1">
+      <c r="A3" s="7">
+        <v>533907</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7">
+        <v>919570703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1">
+      <c r="A4" s="5">
+        <v>533623</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5">
+        <v>919568816</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5723,3364 +6874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1">
-      <c r="A2" s="8">
-        <v>533619</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="8">
-        <v>919568817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1">
-      <c r="A3" s="7">
-        <v>533907</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="7">
-        <v>919570703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1">
-      <c r="A4" s="5">
-        <v>533623</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="5">
-        <v>919568816</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E998"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
-        <v>460</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>542</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>563</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>356</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>643</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>664</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>560</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8">
-        <v>618</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C10" s="8">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8">
-        <v>691</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <v>555</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="8" customFormat="1">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
-        <v>692</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>460</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>356</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>542</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>563</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9">
-        <v>560</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>618</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>664</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3</v>
-      </c>
-      <c r="D22" s="9">
-        <v>555</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9">
-        <v>691</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-      <c r="D25" s="9">
-        <v>692</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="9">
-        <v>643</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>356</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>542</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>563</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>460</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7">
-        <v>560</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>664</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>64</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
-      <c r="D35" s="10">
-        <v>618</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3</v>
-      </c>
-      <c r="D36" s="10">
-        <v>691</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="10">
-        <v>10</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="10">
-        <v>555</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C39" s="7">
-        <v>5</v>
-      </c>
-      <c r="D39" s="10">
-        <v>20</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C40" s="7">
-        <v>5</v>
-      </c>
-      <c r="D40" s="10">
-        <v>692</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>460</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7">
-        <v>356</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7">
-        <v>542</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
-        <v>563</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7">
-        <v>560</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2</v>
-      </c>
-      <c r="D46" s="7">
-        <v>64</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>555</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C48" s="7">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7">
-        <v>618</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7">
-        <v>691</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C50" s="7">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7">
-        <v>10</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C51" s="7">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7">
-        <v>20</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C52" s="7">
-        <v>4</v>
-      </c>
-      <c r="D52" s="7">
-        <v>664</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C53" s="7">
-        <v>4</v>
-      </c>
-      <c r="D53" s="7">
-        <v>692</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="D54" s="8">
-        <v>460</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8">
-        <v>356</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="8">
-        <v>542</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8">
-        <v>563</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="8">
-        <v>59</v>
-      </c>
-      <c r="B58" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2</v>
-      </c>
-      <c r="D58" s="8">
-        <v>691</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="8">
-        <v>60</v>
-      </c>
-      <c r="B59" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C59" s="8">
-        <v>2</v>
-      </c>
-      <c r="D59" s="8">
-        <v>618</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="8">
-        <v>61</v>
-      </c>
-      <c r="B60" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C60" s="8">
-        <v>3</v>
-      </c>
-      <c r="D60" s="8">
-        <v>692</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="8">
-        <v>62</v>
-      </c>
-      <c r="B61" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C61" s="8">
-        <v>3</v>
-      </c>
-      <c r="D61" s="8">
-        <v>560</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="8">
-        <v>63</v>
-      </c>
-      <c r="B62" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C62" s="8">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8">
-        <v>555</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A63" s="8">
-        <v>64</v>
-      </c>
-      <c r="B63" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C63" s="8">
-        <v>4</v>
-      </c>
-      <c r="D63" s="8">
-        <v>643</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="8">
-        <v>65</v>
-      </c>
-      <c r="B64" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C64" s="8">
-        <v>4</v>
-      </c>
-      <c r="D64" s="8">
-        <v>20</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="8">
-        <v>66</v>
-      </c>
-      <c r="B65" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C65" s="8">
-        <v>6</v>
-      </c>
-      <c r="D65" s="8">
-        <v>10</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="8">
-        <v>67</v>
-      </c>
-      <c r="B66" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C66" s="8">
-        <v>6</v>
-      </c>
-      <c r="D66" s="8">
-        <v>664</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="5">
-        <v>68</v>
-      </c>
-      <c r="B67" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1</v>
-      </c>
-      <c r="D67" s="9">
-        <v>460</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="5">
-        <v>69</v>
-      </c>
-      <c r="B68" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C68" s="9">
-        <v>1</v>
-      </c>
-      <c r="D68" s="9">
-        <v>356</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="5">
-        <v>70</v>
-      </c>
-      <c r="B69" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C69" s="9">
-        <v>1</v>
-      </c>
-      <c r="D69" s="9">
-        <v>542</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A70" s="5">
-        <v>71</v>
-      </c>
-      <c r="B70" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C70" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" s="9">
-        <v>560</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="5">
-        <v>72</v>
-      </c>
-      <c r="B71" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C71" s="9">
-        <v>2</v>
-      </c>
-      <c r="D71" s="9">
-        <v>664</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="5">
-        <v>73</v>
-      </c>
-      <c r="B72" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C72" s="9">
-        <v>2</v>
-      </c>
-      <c r="D72" s="9">
-        <v>10</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="5">
-        <v>74</v>
-      </c>
-      <c r="B73" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C73" s="9">
-        <v>3</v>
-      </c>
-      <c r="D73" s="9">
-        <v>618</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="5">
-        <v>75</v>
-      </c>
-      <c r="B74" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C74" s="9">
-        <v>3</v>
-      </c>
-      <c r="D74" s="9">
-        <v>691</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A75" s="5">
-        <v>76</v>
-      </c>
-      <c r="B75" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C75" s="9">
-        <v>4</v>
-      </c>
-      <c r="D75" s="9">
-        <v>692</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="5">
-        <v>77</v>
-      </c>
-      <c r="B76" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C76" s="9">
-        <v>4</v>
-      </c>
-      <c r="D76" s="9">
-        <v>20</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="5">
-        <v>78</v>
-      </c>
-      <c r="B77" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C77" s="9">
-        <v>4</v>
-      </c>
-      <c r="D77" s="9">
-        <v>555</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="5">
-        <v>79</v>
-      </c>
-      <c r="B78" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C78" s="9">
-        <v>5</v>
-      </c>
-      <c r="D78" s="9">
-        <v>563</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="5">
-        <v>80</v>
-      </c>
-      <c r="B79" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C79" s="9">
-        <v>5</v>
-      </c>
-      <c r="D79" s="9">
-        <v>64</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E999"/>
   <sheetViews>
@@ -9099,19 +6893,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1">
@@ -9125,10 +6919,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1">
@@ -9142,10 +6936,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1">
@@ -9159,10 +6953,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1">
@@ -9176,10 +6970,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1">
@@ -9193,10 +6987,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1">
@@ -9210,10 +7004,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1">
@@ -9227,10 +7021,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1">
@@ -9244,10 +7038,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1">
@@ -9261,10 +7055,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1">
@@ -9278,10 +7072,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1">
@@ -9295,10 +7089,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1">
@@ -9312,10 +7106,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1">
@@ -9329,10 +7123,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1">
@@ -9346,10 +7140,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1">
@@ -9363,10 +7157,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1">
@@ -9380,10 +7174,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10382,4 +8176,2289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E998"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>460</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>542</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>563</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>356</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>643</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>664</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>560</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>618</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>691</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>555</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>692</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7251</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>460</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>356</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>542</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>563</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>560</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>618</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9">
+        <v>664</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>555</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>691</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9">
+        <v>692</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>643</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7253</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>356</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>542</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>563</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>460</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>560</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>664</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>64</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3</v>
+      </c>
+      <c r="D35" s="10">
+        <v>618</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C36" s="7">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10">
+        <v>691</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="10">
+        <v>10</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10">
+        <v>555</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C40" s="7">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
+        <v>692</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>460</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>356</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>542</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>563</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>560</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>64</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>555</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>618</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7">
+        <v>691</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
+        <v>10</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C51" s="7">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>20</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C52" s="7">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>664</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7">
+        <v>7257</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>692</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>460</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>356</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>542</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>563</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A58" s="8">
+        <v>59</v>
+      </c>
+      <c r="B58" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>691</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="8">
+        <v>60</v>
+      </c>
+      <c r="B59" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+      <c r="D59" s="8">
+        <v>618</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="8">
+        <v>61</v>
+      </c>
+      <c r="B60" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C60" s="8">
+        <v>3</v>
+      </c>
+      <c r="D60" s="8">
+        <v>692</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="8">
+        <v>62</v>
+      </c>
+      <c r="B61" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C61" s="8">
+        <v>3</v>
+      </c>
+      <c r="D61" s="8">
+        <v>560</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="8">
+        <v>63</v>
+      </c>
+      <c r="B62" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C62" s="8">
+        <v>4</v>
+      </c>
+      <c r="D62" s="8">
+        <v>555</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A63" s="8">
+        <v>64</v>
+      </c>
+      <c r="B63" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C63" s="8">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8">
+        <v>643</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="8">
+        <v>65</v>
+      </c>
+      <c r="B64" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C64" s="8">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8">
+        <v>20</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="8">
+        <v>66</v>
+      </c>
+      <c r="B65" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C65" s="8">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
+        <v>10</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="8">
+        <v>67</v>
+      </c>
+      <c r="B66" s="8">
+        <v>7258</v>
+      </c>
+      <c r="C66" s="8">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8">
+        <v>664</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="5">
+        <v>68</v>
+      </c>
+      <c r="B67" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
+      <c r="D67" s="9">
+        <v>460</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="5">
+        <v>69</v>
+      </c>
+      <c r="B68" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="9">
+        <v>356</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="5">
+        <v>70</v>
+      </c>
+      <c r="B69" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+      <c r="D69" s="9">
+        <v>542</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A70" s="5">
+        <v>71</v>
+      </c>
+      <c r="B70" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C70" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" s="9">
+        <v>560</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A71" s="5">
+        <v>72</v>
+      </c>
+      <c r="B71" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C71" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" s="9">
+        <v>664</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="5">
+        <v>73</v>
+      </c>
+      <c r="B72" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="5">
+        <v>74</v>
+      </c>
+      <c r="B73" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C73" s="9">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9">
+        <v>618</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="5">
+        <v>75</v>
+      </c>
+      <c r="B74" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C74" s="9">
+        <v>3</v>
+      </c>
+      <c r="D74" s="9">
+        <v>691</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="5">
+        <v>76</v>
+      </c>
+      <c r="B75" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C75" s="9">
+        <v>4</v>
+      </c>
+      <c r="D75" s="9">
+        <v>692</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="5">
+        <v>77</v>
+      </c>
+      <c r="B76" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C76" s="9">
+        <v>4</v>
+      </c>
+      <c r="D76" s="9">
+        <v>20</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="5">
+        <v>78</v>
+      </c>
+      <c r="B77" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C77" s="9">
+        <v>4</v>
+      </c>
+      <c r="D77" s="9">
+        <v>555</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="5">
+        <v>79</v>
+      </c>
+      <c r="B78" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C78" s="9">
+        <v>5</v>
+      </c>
+      <c r="D78" s="9">
+        <v>563</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="5">
+        <v>80</v>
+      </c>
+      <c r="B79" s="9">
+        <v>7254</v>
+      </c>
+      <c r="C79" s="9">
+        <v>5</v>
+      </c>
+      <c r="D79" s="9">
+        <v>64</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
 </file>
--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\44663\Degreeplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>PK: CreditID</t>
   </si>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">MS ACS </t>
   </si>
   <si>
-    <t>Databases</t>
-  </si>
-  <si>
     <t>NF</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Web apps</t>
   </si>
   <si>
-    <t>Advanced Databses</t>
-  </si>
-  <si>
     <t>664-UX</t>
   </si>
   <si>
@@ -159,12 +153,6 @@
     <t>Elective2</t>
   </si>
   <si>
-    <t>PK: DegreePlanID</t>
-  </si>
-  <si>
-    <t>FK: StudentID</t>
-  </si>
-  <si>
     <t>DegreePlanAbv</t>
   </si>
   <si>
@@ -201,9 +189,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>PK: StudentID</t>
-  </si>
-  <si>
     <t>SID</t>
   </si>
   <si>
@@ -349,6 +334,24 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>DegreeplanID</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Advanced Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StudentID</t>
+  </si>
+  <si>
+    <t>DegreePlanID</t>
+  </si>
+  <si>
+    <t>StudentID</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -817,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="11" t="str">
-        <f t="shared" ref="E3:E5" si="0">" new Degree{"&amp;$A$1&amp;" = "&amp;A4 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B4&amp;"' , "&amp;$C$1&amp;" = '" &amp;C4&amp;"'},"</f>
+        <f t="shared" ref="E4:E5" si="0">" new Degree{"&amp;$A$1&amp;" = "&amp;A4 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B4&amp;"' , "&amp;$C$1&amp;" = '" &amp;C4&amp;"'},"</f>
         <v xml:space="preserve"> new Degree{PK: DegreeID = 3 , DegreeAbv = 'ACS+NF' , DegreeName = 'MS ACS + NF'},</v>
       </c>
     </row>
@@ -1829,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1865,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1876,7 +1879,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1889,7 +1892,7 @@
       </c>
       <c r="G2" t="str">
         <f>" new Credit{"&amp;$A$1&amp;" ="&amp;A2&amp;" , "&amp;$B$1&amp;" ="&amp;B2&amp;" , "&amp;$C$1&amp;" ="&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;", "&amp;$E$1&amp;" ="&amp;E2&amp;" , "&amp;$F$1&amp;" , "&amp;F2&amp;"}"</f>
-        <v xml:space="preserve"> new Credit{PK: CreditID =460 , CreditAbv =DB , CreditName =Databases , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{PK: CreditID =460 , CreditAbv =DB , CreditName =Database , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1897,10 +1900,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1948,7 +1951,7 @@
         <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1972,7 +1975,7 @@
         <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1985,7 +1988,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =560 , CreditAbv =560 , CreditName =Advanced Databses , IsSummer =1, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{PK: CreditID =560 , CreditAbv =560 , CreditName =Advanced Database , IsSummer =1, IsSpring =1 , IsFall , 1}</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1993,10 +1996,10 @@
         <v>664</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2017,10 +2020,10 @@
         <v>618</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2041,10 +2044,10 @@
         <v>555</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2065,10 +2068,10 @@
         <v>691</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2089,10 +2092,10 @@
         <v>692</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2113,10 +2116,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2137,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2161,10 +2164,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3172,7 +3175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3337,406 +3340,86 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>460</v>
-      </c>
-    </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="1">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4681,10 +4364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4697,72 +4380,84 @@
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1">
       <c r="A2" s="8">
         <v>533619</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8">
         <v>919568817</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1">
+      <c r="F2" s="8" t="str">
+        <f>"Student {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;", "&amp;$D$1&amp;"="&amp;D2&amp;", "&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
+        <v>Student { StudentID=533619, FamilyName=Cheekoti, GivenName=Vennela, SID=S533619, CatPawsID=919568817},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1">
       <c r="A3" s="7">
         <v>533907</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7">
         <v>919570703</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1">
+      <c r="F3" s="8" t="str">
+        <f t="shared" ref="F3:F4" si="0">"Student {"&amp;$A$1&amp;"="&amp;A3&amp;", "&amp;$B$1&amp;"="&amp;B3&amp;", "&amp;$C$1&amp;"="&amp;C3&amp;", "&amp;$D$1&amp;"="&amp;D3&amp;", "&amp;$E$1&amp;"="&amp;E3&amp;"},"</f>
+        <v>Student { StudentID=533907, FamilyName=Gade, GivenName=Susritha, SID=S533907, CatPawsID=919570703},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>533623</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5">
         <v>919568816</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Student { StudentID=533623, FamilyName=Gone, GivenName=Sathwika, SID=S533623, CatPawsID=919568816},</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5753,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E998"/>
+  <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5769,24 +5464,24 @@
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1">
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1">
       <c r="A2" s="8">
         <v>7251</v>
       </c>
@@ -5794,16 +5489,20 @@
         <v>533619</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1">
+      <c r="F2" s="8" t="str">
+        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;","&amp;$D$1&amp;"="&amp;D2&amp;","&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
+        <v>DegreePlan {DegreePlanID=7251, StudentID=533619, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1">
       <c r="A3" s="8">
         <v>7258</v>
       </c>
@@ -5811,16 +5510,20 @@
         <v>533619</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1">
+      <c r="F3" s="8" t="str">
+        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A3&amp;", "&amp;$B$1&amp;"="&amp;B3&amp;", "&amp;$C$1&amp;"="&amp;C3&amp;","&amp;$D$1&amp;"="&amp;D3&amp;","&amp;$E$1&amp;"="&amp;E3&amp;"},"</f>
+        <v>DegreePlan {DegreePlanID=7258, StudentID=533619, DegreePlanAbv=slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>7253</v>
       </c>
@@ -5828,16 +5531,20 @@
         <v>533623</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1">
+      <c r="F4" s="8" t="str">
+        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A4&amp;", "&amp;$B$1&amp;"="&amp;B4&amp;", "&amp;$C$1&amp;"="&amp;C4&amp;","&amp;$D$1&amp;"="&amp;D4&amp;","&amp;$E$1&amp;"="&amp;E4&amp;"},"</f>
+        <v>DegreePlan {DegreePlanID=7253, StudentID=533623, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1">
       <c r="A5" s="7">
         <v>7255</v>
       </c>
@@ -5845,16 +5552,20 @@
         <v>533907</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1">
+      <c r="F5" s="8" t="str">
+        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A5&amp;", "&amp;$B$1&amp;"="&amp;B5&amp;", "&amp;$C$1&amp;"="&amp;C5&amp;","&amp;$D$1&amp;"="&amp;D5&amp;","&amp;$E$1&amp;"="&amp;E5&amp;"},"</f>
+        <v>DegreePlan {DegreePlanID=7255, StudentID=533907, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1">
       <c r="A6" s="7">
         <v>7257</v>
       </c>
@@ -5862,16 +5573,20 @@
         <v>533907</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="F6" s="8" t="str">
+        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A6&amp;", "&amp;$B$1&amp;"="&amp;B6&amp;", "&amp;$C$1&amp;"="&amp;C6&amp;","&amp;$D$1&amp;"="&amp;D6&amp;","&amp;$E$1&amp;"="&amp;E6&amp;"},"</f>
+        <v>DegreePlan {DegreePlanID=7257, StudentID=533907, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1">
       <c r="A7" s="9">
         <v>7254</v>
       </c>
@@ -5879,13 +5594,17 @@
         <v>533623</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A7&amp;", "&amp;$B$1&amp;"="&amp;B7&amp;", "&amp;$C$1&amp;"="&amp;C7&amp;","&amp;$D$1&amp;"="&amp;D7&amp;","&amp;$E$1&amp;"="&amp;E7&amp;"},"</f>
+        <v>DegreePlan {DegreePlanID=7254, StudentID=533623, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6876,10 +6595,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E999"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6891,24 +6610,27 @@
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6919,13 +6641,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1">
+        <v>72</v>
+      </c>
+      <c r="F2" s="8">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -6936,13 +6661,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1">
+        <v>74</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6953,13 +6681,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1">
+        <v>76</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -6970,13 +6701,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1">
+        <v>78</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -6987,13 +6721,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1">
+        <v>80</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -7004,13 +6741,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1">
+        <v>82</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -7021,13 +6761,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -7038,13 +6781,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1">
+        <v>84</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -7055,13 +6801,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -7072,13 +6821,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1">
+        <v>88</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -7089,13 +6841,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1">
+        <v>90</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -7106,13 +6861,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="7" customFormat="1">
+        <v>91</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -7123,13 +6881,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -7140,13 +6901,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="7" customFormat="1">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -7157,13 +6921,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="7" customFormat="1">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -7174,37 +6941,40 @@
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8180,10 +7950,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E998"/>
+  <dimension ref="A1:E933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8197,1348 +7967,308 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1">
-      <c r="A2" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
+        <v>356</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>542</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>563</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>460</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1">
-      <c r="A3" s="8">
+      <c r="E5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>542</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1">
-      <c r="A4" s="8">
+      <c r="D6" s="7">
+        <v>560</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>664</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>563</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1">
-      <c r="A5" s="8">
+      <c r="D9" s="10">
+        <v>618</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>691</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C11" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>356</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1">
-      <c r="A6" s="8">
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
+        <v>555</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C13" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>643</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>664</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>560</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8">
-        <v>618</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C10" s="8">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8">
-        <v>691</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <v>555</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="8" customFormat="1">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="D13" s="10">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
         <v>692</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>7251</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>460</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>356</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>542</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>563</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9">
-        <v>560</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>618</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>664</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3</v>
-      </c>
-      <c r="D22" s="9">
-        <v>555</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9">
-        <v>691</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-      <c r="D25" s="9">
-        <v>692</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="9">
-        <v>643</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>7253</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>356</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>542</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>563</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>460</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7">
-        <v>560</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>664</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>64</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
-      <c r="D35" s="10">
-        <v>618</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3</v>
-      </c>
-      <c r="D36" s="10">
-        <v>691</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="10">
-        <v>10</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="10">
-        <v>555</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C39" s="7">
-        <v>5</v>
-      </c>
-      <c r="D39" s="10">
-        <v>20</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10">
-        <v>7255</v>
-      </c>
-      <c r="C40" s="7">
-        <v>5</v>
-      </c>
-      <c r="D40" s="10">
-        <v>692</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>460</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7">
-        <v>356</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7">
-        <v>542</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
-        <v>563</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7">
-        <v>560</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2</v>
-      </c>
-      <c r="D46" s="7">
-        <v>64</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>555</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C48" s="7">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7">
-        <v>618</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7">
-        <v>691</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C50" s="7">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7">
-        <v>10</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C51" s="7">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7">
-        <v>20</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C52" s="7">
-        <v>4</v>
-      </c>
-      <c r="D52" s="7">
-        <v>664</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7">
-        <v>7257</v>
-      </c>
-      <c r="C53" s="7">
-        <v>4</v>
-      </c>
-      <c r="D53" s="7">
-        <v>692</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A54" s="8">
+      <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="D54" s="8">
-        <v>460</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8">
-        <v>356</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="8">
-        <v>542</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8">
-        <v>563</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="8">
-        <v>59</v>
-      </c>
-      <c r="B58" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2</v>
-      </c>
-      <c r="D58" s="8">
-        <v>691</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="8">
-        <v>60</v>
-      </c>
-      <c r="B59" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C59" s="8">
-        <v>2</v>
-      </c>
-      <c r="D59" s="8">
-        <v>618</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="8">
-        <v>61</v>
-      </c>
-      <c r="B60" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C60" s="8">
-        <v>3</v>
-      </c>
-      <c r="D60" s="8">
-        <v>692</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="8">
-        <v>62</v>
-      </c>
-      <c r="B61" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C61" s="8">
-        <v>3</v>
-      </c>
-      <c r="D61" s="8">
-        <v>560</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="8">
-        <v>63</v>
-      </c>
-      <c r="B62" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C62" s="8">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8">
-        <v>555</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A63" s="8">
-        <v>64</v>
-      </c>
-      <c r="B63" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C63" s="8">
-        <v>4</v>
-      </c>
-      <c r="D63" s="8">
-        <v>643</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="8">
-        <v>65</v>
-      </c>
-      <c r="B64" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C64" s="8">
-        <v>4</v>
-      </c>
-      <c r="D64" s="8">
-        <v>20</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="8">
-        <v>66</v>
-      </c>
-      <c r="B65" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C65" s="8">
-        <v>6</v>
-      </c>
-      <c r="D65" s="8">
-        <v>10</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="8">
-        <v>67</v>
-      </c>
-      <c r="B66" s="8">
-        <v>7258</v>
-      </c>
-      <c r="C66" s="8">
-        <v>6</v>
-      </c>
-      <c r="D66" s="8">
-        <v>664</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="5">
-        <v>68</v>
-      </c>
-      <c r="B67" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1</v>
-      </c>
-      <c r="D67" s="9">
-        <v>460</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="5">
-        <v>69</v>
-      </c>
-      <c r="B68" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C68" s="9">
-        <v>1</v>
-      </c>
-      <c r="D68" s="9">
-        <v>356</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="5">
-        <v>70</v>
-      </c>
-      <c r="B69" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C69" s="9">
-        <v>1</v>
-      </c>
-      <c r="D69" s="9">
-        <v>542</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A70" s="5">
-        <v>71</v>
-      </c>
-      <c r="B70" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C70" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" s="9">
-        <v>560</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="5">
-        <v>72</v>
-      </c>
-      <c r="B71" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C71" s="9">
-        <v>2</v>
-      </c>
-      <c r="D71" s="9">
-        <v>664</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="5">
-        <v>73</v>
-      </c>
-      <c r="B72" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C72" s="9">
-        <v>2</v>
-      </c>
-      <c r="D72" s="9">
-        <v>10</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="5">
-        <v>74</v>
-      </c>
-      <c r="B73" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C73" s="9">
-        <v>3</v>
-      </c>
-      <c r="D73" s="9">
-        <v>618</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="5">
-        <v>75</v>
-      </c>
-      <c r="B74" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C74" s="9">
-        <v>3</v>
-      </c>
-      <c r="D74" s="9">
-        <v>691</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A75" s="5">
-        <v>76</v>
-      </c>
-      <c r="B75" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C75" s="9">
-        <v>4</v>
-      </c>
-      <c r="D75" s="9">
-        <v>692</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="5">
-        <v>77</v>
-      </c>
-      <c r="B76" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C76" s="9">
-        <v>4</v>
-      </c>
-      <c r="D76" s="9">
-        <v>20</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="5">
-        <v>78</v>
-      </c>
-      <c r="B77" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C77" s="9">
-        <v>4</v>
-      </c>
-      <c r="D77" s="9">
-        <v>555</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="5">
-        <v>79</v>
-      </c>
-      <c r="B78" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C78" s="9">
-        <v>5</v>
-      </c>
-      <c r="D78" s="9">
-        <v>563</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="5">
-        <v>80</v>
-      </c>
-      <c r="B79" s="9">
-        <v>7254</v>
-      </c>
-      <c r="C79" s="9">
-        <v>5</v>
-      </c>
-      <c r="D79" s="9">
-        <v>64</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -10392,71 +9122,6 @@
     <row r="931" ht="15.75" customHeight="1"/>
     <row r="932" ht="15.75" customHeight="1"/>
     <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\44663\Degreeplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
-  <si>
-    <t>PK: CreditID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t>PK: DegreeID</t>
   </si>
   <si>
-    <t>PK: DegreeCreditID</t>
-  </si>
-  <si>
     <t>CreditAbv</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>DegreeAbv</t>
   </si>
   <si>
-    <t>FK: DegreeID</t>
-  </si>
-  <si>
     <t>DegreeName</t>
   </si>
   <si>
@@ -352,6 +343,18 @@
   </si>
   <si>
     <t>StudentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CreditID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DegreeCreditID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DegreeID</t>
+  </si>
+  <si>
+    <t>CreditID</t>
   </si>
 </sst>
 </file>
@@ -755,19 +758,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -775,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4">
         <v>6</v>
@@ -793,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -811,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -829,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -1833,7 +1836,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1850,25 +1853,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1876,10 +1879,10 @@
         <v>460</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1891,8 +1894,8 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>" new Credit{"&amp;$A$1&amp;" ="&amp;A2&amp;" , "&amp;$B$1&amp;" ="&amp;B2&amp;" , "&amp;$C$1&amp;" ="&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;", "&amp;$E$1&amp;" ="&amp;E2&amp;" , "&amp;$F$1&amp;" , "&amp;F2&amp;"}"</f>
-        <v xml:space="preserve"> new Credit{PK: CreditID =460 , CreditAbv =DB , CreditName =Database , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <f>" new Credit{"&amp;$A$1&amp;" ="&amp;A2&amp;" , "&amp;$B$1&amp;" ="&amp;B2&amp;" , "&amp;$C$1&amp;" ="&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;", "&amp;$E$1&amp;" ="&amp;E2&amp;" , "&amp;$F$1&amp;" ="&amp;F2&amp;"},"</f>
+        <v xml:space="preserve"> new Credit{ CreditID =460 , CreditAbv =DB , CreditName =Database , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1900,10 +1903,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1915,8 +1918,8 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G14" si="0">" new Credit{"&amp;$A$1&amp;" ="&amp;A3&amp;" , "&amp;$B$1&amp;" ="&amp;B3&amp;" , "&amp;$C$1&amp;" ="&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;", "&amp;$E$1&amp;" ="&amp;E3&amp;" , "&amp;$F$1&amp;" , "&amp;F3&amp;"}"</f>
-        <v xml:space="preserve"> new Credit{PK: CreditID =356 , CreditAbv =NF , CreditName =Network Fundamentals , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <f t="shared" ref="G3:G14" si="0">" new Credit{"&amp;$A$1&amp;" ="&amp;A3&amp;" , "&amp;$B$1&amp;" ="&amp;B3&amp;" , "&amp;$C$1&amp;" ="&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;", "&amp;$E$1&amp;" ="&amp;E3&amp;" , "&amp;$F$1&amp;" ="&amp;F3&amp;"},"</f>
+        <v xml:space="preserve"> new Credit{ CreditID =356 , CreditAbv =NF , CreditName =Network Fundamentals , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1927,7 +1930,7 @@
         <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1940,7 +1943,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =542 , CreditAbv =542 , CreditName =OOP with java , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =542 , CreditAbv =542 , CreditName =OOP with java , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1951,7 +1954,7 @@
         <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =563 , CreditAbv =563 , CreditName =Web apps , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =563 , CreditAbv =563 , CreditName =Web apps , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1975,7 +1978,7 @@
         <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1988,7 +1991,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =560 , CreditAbv =560 , CreditName =Advanced Database , IsSummer =1, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =560 , CreditAbv =560 , CreditName =Advanced Database , IsSummer =1, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1996,10 +1999,10 @@
         <v>664</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2012,7 +2015,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =664 , CreditAbv =664-UX , CreditName =User Experience Design , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =664 , CreditAbv =664-UX , CreditName =User Experience Design , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2020,10 +2023,10 @@
         <v>618</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2036,7 +2039,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =618 , CreditAbv =618-PM , CreditName =Project management , IsSummer =1, IsSpring =0 , IsFall , 0}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =618 , CreditAbv =618-PM , CreditName =Project management , IsSummer =1, IsSpring =0 , IsFall =0},</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2044,10 +2047,10 @@
         <v>555</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2060,7 +2063,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =555 , CreditAbv =555-NS , CreditName =Network Security , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =555 , CreditAbv =555-NS , CreditName =Network Security , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2068,10 +2071,10 @@
         <v>691</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2084,7 +2087,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =691 , CreditAbv =691-GDP1 , CreditName =GDP1 , IsSummer =1, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =691 , CreditAbv =691-GDP1 , CreditName =GDP1 , IsSummer =1, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2092,10 +2095,10 @@
         <v>692</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2108,7 +2111,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =692 , CreditAbv =692-GDP2 , CreditName =GDP2 , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =692 , CreditAbv =692-GDP2 , CreditName =GDP2 , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2116,10 +2119,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2132,7 +2135,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =64 , CreditAbv =Mobile , CreditName =643 or 644 mobile , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =64 , CreditAbv =Mobile , CreditName =643 or 644 mobile , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2140,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2156,7 +2159,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =10 , CreditAbv =E1 , CreditName =Elective1 , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =10 , CreditAbv =E1 , CreditName =Elective1 , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2164,10 +2167,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2180,7 +2183,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{PK: CreditID =20 , CreditAbv =E2 , CreditName =Elective2 , IsSummer =0, IsSpring =1 , IsFall , 1}</v>
+        <v xml:space="preserve"> new Credit{ CreditID =20 , CreditAbv =E2 , CreditName =Elective2 , IsSummer =0, IsSpring =1 , IsFall =1},</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3171,11 +3174,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3183,21 +3186,25 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3207,8 +3214,12 @@
       <c r="C2" s="6">
         <v>460</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+      <c r="D2" s="6" t="str">
+        <f xml:space="preserve"> "new DegreeCredit{"&amp;$A$1&amp;" = "&amp;A2 &amp;" , "&amp;$B$1 &amp;" = "&amp;B2 &amp;" , "&amp;$C$1 &amp;" = "&amp;C2 &amp;"},"</f>
+        <v>new DegreeCredit{ DegreeCreditID = 1 ,  DegreeID = 1 , CreditID = 460},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3218,8 +3229,12 @@
       <c r="C3" s="6">
         <v>356</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1">
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D14" si="0" xml:space="preserve"> "new DegreeCredit{"&amp;$A$1&amp;" = "&amp;A3 &amp;" , "&amp;$B$1 &amp;" = "&amp;B3 &amp;" , "&amp;$C$1 &amp;" = "&amp;C3 &amp;"},"</f>
+        <v>new DegreeCredit{ DegreeCreditID = 2 ,  DegreeID = 1 , CreditID = 356},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3229,8 +3244,12 @@
       <c r="C4" s="6">
         <v>542</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1">
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 3 ,  DegreeID = 1 , CreditID = 542},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3240,8 +3259,12 @@
       <c r="C5" s="6">
         <v>563</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 4 ,  DegreeID = 1 , CreditID = 563},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3251,8 +3274,12 @@
       <c r="C6" s="6">
         <v>560</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1">
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 5 ,  DegreeID = 1 , CreditID = 560},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3262,8 +3289,12 @@
       <c r="C7" s="6">
         <v>664</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1">
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 6 ,  DegreeID = 1 , CreditID = 664},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3273,8 +3304,12 @@
       <c r="C8" s="6">
         <v>618</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1">
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 7 ,  DegreeID = 1 , CreditID = 618},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3284,8 +3319,12 @@
       <c r="C9" s="6">
         <v>555</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1">
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 8 ,  DegreeID = 1 , CreditID = 555},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3295,8 +3334,12 @@
       <c r="C10" s="6">
         <v>691</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1">
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 9 ,  DegreeID = 1 , CreditID = 691},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3306,8 +3349,12 @@
       <c r="C11" s="6">
         <v>692</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1">
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 10 ,  DegreeID = 1 , CreditID = 692},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3317,8 +3364,12 @@
       <c r="C12" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1">
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 11 ,  DegreeID = 1 , CreditID = 64},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3328,8 +3379,12 @@
       <c r="C13" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1">
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 12 ,  DegreeID = 1 , CreditID = 10},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3339,8 +3394,12 @@
       <c r="C14" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit{ DegreeCreditID = 13 ,  DegreeID = 1 , CreditID = 20},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -4366,7 +4425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4382,19 +4441,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -4402,13 +4461,13 @@
         <v>533619</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8">
         <v>919568817</v>
@@ -4423,13 +4482,13 @@
         <v>533907</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="7">
         <v>919570703</v>
@@ -4444,13 +4503,13 @@
         <v>533623</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5">
         <v>919568816</v>
@@ -5466,19 +5525,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -5489,16 +5548,16 @@
         <v>533619</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;","&amp;$D$1&amp;"="&amp;D2&amp;","&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
+        <f t="shared" ref="F2:F7" si="0">"DegreePlan {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;","&amp;$D$1&amp;"="&amp;D2&amp;","&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
         <v>DegreePlan {DegreePlanID=7251, StudentID=533619, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
       </c>
     </row>
@@ -5510,16 +5569,16 @@
         <v>533619</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A3&amp;", "&amp;$B$1&amp;"="&amp;B3&amp;", "&amp;$C$1&amp;"="&amp;C3&amp;","&amp;$D$1&amp;"="&amp;D3&amp;","&amp;$E$1&amp;"="&amp;E3&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v>DegreePlan {DegreePlanID=7258, StudentID=533619, DegreePlanAbv=slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
       </c>
     </row>
@@ -5531,16 +5590,16 @@
         <v>533623</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A4&amp;", "&amp;$B$1&amp;"="&amp;B4&amp;", "&amp;$C$1&amp;"="&amp;C4&amp;","&amp;$D$1&amp;"="&amp;D4&amp;","&amp;$E$1&amp;"="&amp;E4&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v>DegreePlan {DegreePlanID=7253, StudentID=533623, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
       </c>
     </row>
@@ -5552,16 +5611,16 @@
         <v>533907</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A5&amp;", "&amp;$B$1&amp;"="&amp;B5&amp;", "&amp;$C$1&amp;"="&amp;C5&amp;","&amp;$D$1&amp;"="&amp;D5&amp;","&amp;$E$1&amp;"="&amp;E5&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v>DegreePlan {DegreePlanID=7255, StudentID=533907, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
       </c>
     </row>
@@ -5573,16 +5632,16 @@
         <v>533907</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="str">
-        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A6&amp;", "&amp;$B$1&amp;"="&amp;B6&amp;", "&amp;$C$1&amp;"="&amp;C6&amp;","&amp;$D$1&amp;"="&amp;D6&amp;","&amp;$E$1&amp;"="&amp;E6&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v>DegreePlan {DegreePlanID=7257, StudentID=533907, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
       </c>
     </row>
@@ -5594,16 +5653,16 @@
         <v>533623</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="str">
-        <f>"DegreePlan {"&amp;$A$1&amp;"="&amp;A7&amp;", "&amp;$B$1&amp;"="&amp;B7&amp;", "&amp;$C$1&amp;"="&amp;C7&amp;","&amp;$D$1&amp;"="&amp;D7&amp;","&amp;$E$1&amp;"="&amp;E7&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v>DegreePlan {DegreePlanID=7254, StudentID=533623, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
       </c>
     </row>
@@ -6612,22 +6671,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -6641,10 +6700,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="8">
         <v>7258</v>
@@ -6661,10 +6720,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="8">
         <v>7258</v>
@@ -6681,10 +6740,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F4" s="8">
         <v>7258</v>
@@ -6701,10 +6760,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8">
         <v>7258</v>
@@ -6721,10 +6780,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="8">
         <v>7258</v>
@@ -6741,10 +6800,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="8">
         <v>7258</v>
@@ -6761,10 +6820,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="5">
         <v>7255</v>
@@ -6781,10 +6840,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9" s="5">
         <v>7255</v>
@@ -6801,10 +6860,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" s="5">
         <v>7255</v>
@@ -6821,10 +6880,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11" s="5">
         <v>7255</v>
@@ -6841,10 +6900,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" s="5">
         <v>7255</v>
@@ -6861,10 +6920,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7">
         <v>7254</v>
@@ -6881,10 +6940,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7">
         <v>7254</v>
@@ -6901,10 +6960,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7">
         <v>7254</v>
@@ -6921,10 +6980,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7">
         <v>7254</v>
@@ -6941,10 +7000,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7">
         <v>7254</v>
@@ -7967,19 +8026,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -7996,7 +8055,7 @@
         <v>356</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8013,7 +8072,7 @@
         <v>542</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8030,7 +8089,7 @@
         <v>563</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8047,7 +8106,7 @@
         <v>460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8064,7 +8123,7 @@
         <v>560</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8081,7 +8140,7 @@
         <v>664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8098,7 +8157,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8115,7 +8174,7 @@
         <v>618</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8132,7 +8191,7 @@
         <v>691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8149,7 +8208,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8166,7 +8225,7 @@
         <v>555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8183,7 +8242,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8200,7 +8259,7 @@
         <v>692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1"/>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\44663\Degreeplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>DegreePlanName</t>
   </si>
   <si>
-    <t>FK:DegreeID</t>
-  </si>
-  <si>
     <t>Super Fast</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>CreditID</t>
+  </si>
+  <si>
+    <t>DegreeID</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -1836,7 +1836,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1853,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3176,7 +3176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
@@ -3192,16 +3192,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -4426,7 +4426,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4441,19 +4441,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -4461,20 +4461,20 @@
         <v>533619</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="8">
         <v>919568817</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>"Student {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;", "&amp;$D$1&amp;"="&amp;D2&amp;", "&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
-        <v>Student { StudentID=533619, FamilyName=Cheekoti, GivenName=Vennela, SID=S533619, CatPawsID=919568817},</v>
+        <f>"new Student {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;", "&amp;$D$1&amp;"="&amp;D2&amp;", "&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
+        <v>new Student { StudentID=533619, FamilyName=Cheekoti, GivenName=Vennela, SID=S533619, CatPawsID=919568817},</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1">
@@ -4482,20 +4482,20 @@
         <v>533907</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E3" s="7">
         <v>919570703</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F4" si="0">"Student {"&amp;$A$1&amp;"="&amp;A3&amp;", "&amp;$B$1&amp;"="&amp;B3&amp;", "&amp;$C$1&amp;"="&amp;C3&amp;", "&amp;$D$1&amp;"="&amp;D3&amp;", "&amp;$E$1&amp;"="&amp;E3&amp;"},"</f>
-        <v>Student { StudentID=533907, FamilyName=Gade, GivenName=Susritha, SID=S533907, CatPawsID=919570703},</v>
+        <f t="shared" ref="F3:F4" si="0">"new Student {"&amp;$A$1&amp;"="&amp;A3&amp;", "&amp;$B$1&amp;"="&amp;B3&amp;", "&amp;$C$1&amp;"="&amp;C3&amp;", "&amp;$D$1&amp;"="&amp;D3&amp;", "&amp;$E$1&amp;"="&amp;E3&amp;"},"</f>
+        <v>new Student { StudentID=533907, FamilyName=Gade, GivenName=Susritha, SID=S533907, CatPawsID=919570703},</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
@@ -4503,20 +4503,20 @@
         <v>533623</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="5">
         <v>919568816</v>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Student { StudentID=533623, FamilyName=Gone, GivenName=Sathwika, SID=S533623, CatPawsID=919568816},</v>
+        <v>new Student { StudentID=533623, FamilyName=Gone, GivenName=Sathwika, SID=S533623, CatPawsID=919568816},</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5509,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5525,10 +5525,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>
@@ -5537,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -5548,17 +5548,17 @@
         <v>533619</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f t="shared" ref="F2:F7" si="0">"DegreePlan {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;","&amp;$D$1&amp;"="&amp;D2&amp;","&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
-        <v>DegreePlan {DegreePlanID=7251, StudentID=533619, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
+        <f>"new DegreePlan {"&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"="&amp;B2&amp;", "&amp;$C$1&amp;"="&amp;C2&amp;","&amp;$D$1&amp;"="&amp;D2&amp;","&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
+        <v>new DegreePlan {DegreePlanID=7251, StudentID=533619, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,DegreeID=1},</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1">
@@ -5569,17 +5569,17 @@
         <v>533619</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>DegreePlan {DegreePlanID=7258, StudentID=533619, DegreePlanAbv=slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
+        <f t="shared" ref="F3:F7" si="0">"new DegreePlan {"&amp;$A$1&amp;"="&amp;A3&amp;", "&amp;$B$1&amp;"="&amp;B3&amp;", "&amp;$C$1&amp;"="&amp;C3&amp;","&amp;$D$1&amp;"="&amp;D3&amp;","&amp;$E$1&amp;"="&amp;E3&amp;"},"</f>
+        <v>new DegreePlan {DegreePlanID=7258, StudentID=533619, DegreePlanAbv=slow and Easy,DegreePlanName=As slow as I can,DegreeID=1},</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
@@ -5590,17 +5590,17 @@
         <v>533623</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>DegreePlan {DegreePlanID=7253, StudentID=533623, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
+        <v>new DegreePlan {DegreePlanID=7253, StudentID=533623, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,DegreeID=1},</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1">
@@ -5611,17 +5611,17 @@
         <v>533907</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>DegreePlan {DegreePlanID=7255, StudentID=533907, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
+        <v>new DegreePlan {DegreePlanID=7255, StudentID=533907, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,DegreeID=1},</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1">
@@ -5632,17 +5632,17 @@
         <v>533907</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>DegreePlan {DegreePlanID=7257, StudentID=533907, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,FK:DegreeID=1},</v>
+        <v>new DegreePlan {DegreePlanID=7257, StudentID=533907, DegreePlanAbv=Super Fast,DegreePlanName=As Fast as I can,DegreeID=1},</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1">
@@ -5653,17 +5653,17 @@
         <v>533623</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>DegreePlan {DegreePlanID=7254, StudentID=533623, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,FK:DegreeID=1},</v>
+        <v>new DegreePlan {DegreePlanID=7254, StudentID=533623, DegreePlanAbv=Slow and Easy,DegreePlanName=As slow as I can,DegreeID=1},</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6671,22 +6671,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -6700,10 +6700,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="F2" s="8">
         <v>7258</v>
@@ -6720,10 +6720,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="F3" s="8">
         <v>7258</v>
@@ -6740,10 +6740,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="F4" s="8">
         <v>7258</v>
@@ -6760,10 +6760,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="F5" s="8">
         <v>7258</v>
@@ -6780,10 +6780,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="F6" s="8">
         <v>7258</v>
@@ -6800,10 +6800,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F7" s="8">
         <v>7258</v>
@@ -6820,10 +6820,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="F8" s="5">
         <v>7255</v>
@@ -6840,10 +6840,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="F9" s="5">
         <v>7255</v>
@@ -6860,10 +6860,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="F10" s="5">
         <v>7255</v>
@@ -6880,10 +6880,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="F11" s="5">
         <v>7255</v>
@@ -6900,10 +6900,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F12" s="5">
         <v>7255</v>
@@ -6920,10 +6920,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7">
         <v>7254</v>
@@ -6940,10 +6940,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7">
         <v>7254</v>
@@ -6960,10 +6960,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="7">
         <v>7254</v>
@@ -6980,10 +6980,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7">
         <v>7254</v>
@@ -7000,10 +7000,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7">
         <v>7254</v>
@@ -8026,19 +8026,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8055,7 +8055,7 @@
         <v>356</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8072,7 +8072,7 @@
         <v>542</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8089,7 +8089,7 @@
         <v>563</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8106,7 +8106,7 @@
         <v>460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8123,7 +8123,7 @@
         <v>560</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8140,7 +8140,7 @@
         <v>664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8157,7 +8157,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8174,7 +8174,7 @@
         <v>618</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8191,7 +8191,7 @@
         <v>691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8208,7 +8208,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8225,7 +8225,7 @@
         <v>555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8242,7 +8242,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
@@ -8259,7 +8259,7 @@
         <v>692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1"/>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533907\Documents\44663\Degreeplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>PK: DegreeID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>DegreeName</t>
   </si>
   <si>
-    <t>FK: CreditID</t>
-  </si>
-  <si>
     <t>NumberOfTerms</t>
   </si>
   <si>
@@ -165,12 +162,6 @@
     <t>Slow and Easy</t>
   </si>
   <si>
-    <t>PK: SlotID</t>
-  </si>
-  <si>
-    <t>FK:DegreePlan</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>PK: StudenTermID</t>
-  </si>
-  <si>
     <t>FK:StudentID</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
     <t>FamilyName</t>
   </si>
   <si>
-    <t xml:space="preserve"> FK:Term</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -355,6 +340,18 @@
   </si>
   <si>
     <t>DegreeID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StudenTermID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SlotID</t>
+  </si>
+  <si>
+    <t>DegreePlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Term</t>
   </si>
 </sst>
 </file>
@@ -767,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -778,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="4">
         <v>6</v>
@@ -796,10 +793,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -814,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -832,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -1853,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1871,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1879,10 +1876,10 @@
         <v>460</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1903,10 +1900,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1930,7 +1927,7 @@
         <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1954,7 +1951,7 @@
         <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1978,7 +1975,7 @@
         <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1999,10 +1996,10 @@
         <v>664</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2023,10 +2020,10 @@
         <v>618</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2047,10 +2044,10 @@
         <v>555</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2071,10 +2068,10 @@
         <v>691</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2095,10 +2092,10 @@
         <v>692</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2119,10 +2116,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2143,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2167,10 +2164,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3192,16 +3189,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -4441,19 +4438,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -4461,13 +4458,13 @@
         <v>533619</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="8">
         <v>919568817</v>
@@ -4482,13 +4479,13 @@
         <v>533907</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="7">
         <v>919570703</v>
@@ -4503,13 +4500,13 @@
         <v>533623</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5">
         <v>919568816</v>
@@ -5509,8 +5506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5525,19 +5522,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -5548,10 +5545,10 @@
         <v>533619</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -5569,10 +5566,10 @@
         <v>533619</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -5590,10 +5587,10 @@
         <v>533623</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -5611,10 +5608,10 @@
         <v>533907</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -5632,10 +5629,10 @@
         <v>533907</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -5653,10 +5650,10 @@
         <v>533623</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -6654,10 +6651,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F999"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6666,30 +6663,35 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6700,16 +6702,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="8">
-        <v>7258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1">
+        <v>64</v>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f>" new Slot StudentTerm"</f>
+        <v xml:space="preserve"> new Slot StudentTerm</v>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A2 &amp;" , "&amp;$B$1 &amp;" = "&amp;B2&amp;" , "&amp;$C$1 &amp;" = "&amp;C2 &amp;" , "&amp;$D$1 &amp;" = "&amp;D2 &amp;" , "&amp;$E$1&amp;" = "&amp;E2 &amp;" , "&amp;$F$1&amp;"="&amp;F2&amp;"},"</f>
+        <v>new StudentTerm{ StudenTermID = 1 , FK:StudentID = 533619 , Term = 1 , TermAbv = S18 , TermName = Spring 2018 , DegreeplanID= new Slot StudentTerm},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -6720,16 +6727,20 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8">
         <v>7258</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1">
+      <c r="G3" s="8" t="str">
+        <f t="shared" ref="G3:G17" si="0" xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A3 &amp;" , "&amp;$B$1 &amp;" = "&amp;B3&amp;" , "&amp;$C$1 &amp;" = "&amp;C3 &amp;" , "&amp;$D$1 &amp;" = "&amp;D3 &amp;" , "&amp;$E$1&amp;" = "&amp;E3 &amp;" , "&amp;$F$1&amp;" ="&amp;F3&amp;"},"</f>
+        <v>new StudentTerm{ StudenTermID = 2 , FK:StudentID = 533619 , Term = 2 , TermAbv = Su18 , TermName = Summer 2018 , DegreeplanID =7258},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6740,16 +6751,20 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="8">
         <v>7258</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="8" customFormat="1">
+      <c r="G4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 3 , FK:StudentID = 533619 , Term = 3 , TermAbv = F18 , TermName = Fall 2018 , DegreeplanID =7258},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -6760,16 +6775,20 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8">
         <v>7258</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1">
+      <c r="G5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 4 , FK:StudentID = 533619 , Term = 4 , TermAbv = S19 , TermName = Spring 2019 , DegreeplanID =7258},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -6780,16 +6799,20 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8">
         <v>7258</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1">
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 5 , FK:StudentID = 533619 , Term = 5 , TermAbv = Su19 , TermName = Summer 2019 , DegreeplanID =7258},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -6800,16 +6823,20 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8">
         <v>7258</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1">
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 6 , FK:StudentID = 533619 , Term = 6 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7258},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6820,16 +6847,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5">
         <v>7255</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1">
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 7 , FK:StudentID = 533623 , Term = 1 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7255},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6840,16 +6871,20 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" s="5">
         <v>7255</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1">
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 8 , FK:StudentID = 533623 , Term = 2 , TermAbv = S20 , TermName = Spring 2020 , DegreeplanID =7255},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6860,16 +6895,20 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F10" s="5">
         <v>7255</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1">
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 9 , FK:StudentID = 533623 , Term = 3 , TermAbv = Su20 , TermName = Summer 2020 , DegreeplanID =7255},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6880,16 +6919,20 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F11" s="5">
         <v>7255</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1">
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 10 , FK:StudentID = 533623 , Term = 4 , TermAbv = F20 , TermName = Fall 2020 , DegreeplanID =7255},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6900,16 +6943,20 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" s="5">
         <v>7255</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1">
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 11 , FK:StudentID = 533623 , Term = 5 , TermAbv = S21 , TermName = Spring 2021 , DegreeplanID =7255},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -6920,16 +6967,20 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7">
         <v>7254</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1">
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 12 , FK:StudentID = 533907 , Term = 1 , TermAbv = F18 , TermName = Fall2018 , DegreeplanID =7254},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -6940,16 +6991,20 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7">
         <v>7254</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1">
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 13 , FK:StudentID = 533907 , Term = 2 , TermAbv = S19 , TermName = Spring2019 , DegreeplanID =7254},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -6960,16 +7015,20 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7">
         <v>7254</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1">
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 14 , FK:StudentID = 533907 , Term = 3 , TermAbv = SU19 , TermName = Summer2019 , DegreeplanID =7254},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -6980,16 +7039,20 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7">
         <v>7254</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1">
+      <c r="G16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 15 , FK:StudentID = 533907 , Term = 4 , TermAbv = F20 , TermName = Fall2019 , DegreeplanID =7254},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -7000,40 +7063,44 @@
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7">
         <v>7254</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{ StudenTermID = 16 , FK:StudentID = 533907 , Term = 5 , TermAbv = S20 , TermName = Spring2020 , DegreeplanID =7254},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8009,10 +8076,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E933"/>
+  <dimension ref="A1:F933"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8024,24 +8091,27 @@
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8055,10 +8125,14 @@
         <v>356</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>"new Slot{"&amp;$A$1&amp;" = "&amp;A2 &amp;", "&amp;$B$1 &amp;" = "&amp;B2 &amp;", "&amp;$C$1&amp;" = "&amp;C2 &amp;","&amp;$D$1&amp;" = "&amp;D2 &amp;","&amp;$E$1&amp;"="&amp;E2&amp;"},"</f>
+        <v>new Slot{ SlotID = 1, DegreePlan = 7255,  Term = 1, CreditID = 356,Status=C},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -8072,10 +8146,14 @@
         <v>542</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f t="shared" ref="F3:F14" si="0">"new Slot{"&amp;$A$1&amp;" = "&amp;A3 &amp;", "&amp;$B$1 &amp;" = "&amp;B3 &amp;", "&amp;$C$1&amp;" = "&amp;C3 &amp;","&amp;$D$1&amp;" = "&amp;D3 &amp;","&amp;$E$1&amp;"="&amp;E3&amp;"},"</f>
+        <v>new Slot{ SlotID = 2, DegreePlan = 7255,  Term = 1, CreditID = 542,Status=C},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -8089,10 +8167,14 @@
         <v>563</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 3, DegreePlan = 7255,  Term = 1, CreditID = 563,Status=C},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -8106,10 +8188,14 @@
         <v>460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 4, DegreePlan = 7255,  Term = 1, CreditID = 460,Status=C},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -8123,10 +8209,14 @@
         <v>560</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 5, DegreePlan = 7255,  Term = 2, CreditID = 560,Status=A},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -8140,10 +8230,14 @@
         <v>664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 6, DegreePlan = 7255,  Term = 2, CreditID = 664,Status=A},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -8157,10 +8251,14 @@
         <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 7, DegreePlan = 7255,  Term = 2, CreditID = 64,Status=A},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -8174,10 +8272,14 @@
         <v>618</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 8, DegreePlan = 7255,  Term = 3, CreditID = 618,Status=P},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -8191,10 +8293,14 @@
         <v>691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 9, DegreePlan = 7255,  Term = 3, CreditID = 691,Status=P},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -8208,10 +8314,14 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 10, DegreePlan = 7255,  Term = 4, CreditID = 10,Status=P},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -8225,10 +8335,14 @@
         <v>555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 11, DegreePlan = 7255,  Term = 4, CreditID = 555,Status=P},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -8242,10 +8356,14 @@
         <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 12, DegreePlan = 7255,  Term = 5, CreditID = 20,Status=P},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -8259,11 +8377,15 @@
         <v>692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{ SlotID = 13, DegreePlan = 7255,  Term = 5, CreditID = 692,Status=P},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>PK: DegreeID</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>Spring2020</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>CatPawsID</t>
@@ -739,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -767,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -1850,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1868,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1879,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1975,7 +1972,7 @@
         <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3175,7 +3172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3189,16 +3186,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -4423,7 +4420,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4438,19 +4435,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -5507,7 +5507,7 @@
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5522,10 +5522,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
@@ -5534,7 +5534,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -6653,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6670,7 +6673,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>59</v>
@@ -6685,10 +6688,10 @@
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
@@ -6707,13 +6710,12 @@
       <c r="E2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="8" t="str">
-        <f>" new Slot StudentTerm"</f>
-        <v xml:space="preserve"> new Slot StudentTerm</v>
+      <c r="F2" s="8">
+        <v>7258</v>
       </c>
       <c r="G2" s="8" t="str">
         <f xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A2 &amp;" , "&amp;$B$1 &amp;" = "&amp;B2&amp;" , "&amp;$C$1 &amp;" = "&amp;C2 &amp;" , "&amp;$D$1 &amp;" = "&amp;D2 &amp;" , "&amp;$E$1&amp;" = "&amp;E2 &amp;" , "&amp;$F$1&amp;"="&amp;F2&amp;"},"</f>
-        <v>new StudentTerm{ StudenTermID = 1 , FK:StudentID = 533619 , Term = 1 , TermAbv = S18 , TermName = Spring 2018 , DegreeplanID= new Slot StudentTerm},</v>
+        <v>new StudentTerm{ StudenTermID = 1 , FK:StudentID = 533619 , Term = 1 , TermAbv = S18 , TermName = Spring 2018 , DegreeplanID=7258},</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
@@ -8078,7 +8080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F933"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -8093,22 +8095,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533907\Documents\44663\Degreeplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
     <sheet name="Credit" sheetId="2" r:id="rId2"/>
     <sheet name="DegreeCredit" sheetId="3" r:id="rId3"/>
     <sheet name="Student" sheetId="5" r:id="rId4"/>
-    <sheet name="DegreePlan" sheetId="4" r:id="rId5"/>
+    <sheet name="Degreeplan" sheetId="4" r:id="rId5"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId6"/>
     <sheet name="Slot" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -339,9 +339,6 @@
     <t>DegreeID</t>
   </si>
   <si>
-    <t xml:space="preserve"> StudenTermID</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SlotID</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StudentTermID</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -5507,7 +5507,7 @@
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6656,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6673,7 +6673,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>59</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="G2" s="8" t="str">
         <f xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A2 &amp;" , "&amp;$B$1 &amp;" = "&amp;B2&amp;" , "&amp;$C$1 &amp;" = "&amp;C2 &amp;" , "&amp;$D$1 &amp;" = "&amp;D2 &amp;" , "&amp;$E$1&amp;" = "&amp;E2 &amp;" , "&amp;$F$1&amp;"="&amp;F2&amp;"},"</f>
-        <v>new StudentTerm{ StudenTermID = 1 , FK:StudentID = 533619 , Term = 1 , TermAbv = S18 , TermName = Spring 2018 , DegreeplanID=7258},</v>
+        <v>new StudentTerm{ StudentTermID = 1 , FK:StudentID = 533619 , Term = 1 , TermAbv = S18 , TermName = Spring 2018 , DegreeplanID=7258},</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="G3" s="8" t="str">
         <f t="shared" ref="G3:G17" si="0" xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A3 &amp;" , "&amp;$B$1 &amp;" = "&amp;B3&amp;" , "&amp;$C$1 &amp;" = "&amp;C3 &amp;" , "&amp;$D$1 &amp;" = "&amp;D3 &amp;" , "&amp;$E$1&amp;" = "&amp;E3 &amp;" , "&amp;$F$1&amp;" ="&amp;F3&amp;"},"</f>
-        <v>new StudentTerm{ StudenTermID = 2 , FK:StudentID = 533619 , Term = 2 , TermAbv = Su18 , TermName = Summer 2018 , DegreeplanID =7258},</v>
+        <v>new StudentTerm{ StudentTermID = 2 , FK:StudentID = 533619 , Term = 2 , TermAbv = Su18 , TermName = Summer 2018 , DegreeplanID =7258},</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="G4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 3 , FK:StudentID = 533619 , Term = 3 , TermAbv = F18 , TermName = Fall 2018 , DegreeplanID =7258},</v>
+        <v>new StudentTerm{ StudentTermID = 3 , FK:StudentID = 533619 , Term = 3 , TermAbv = F18 , TermName = Fall 2018 , DegreeplanID =7258},</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="G5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 4 , FK:StudentID = 533619 , Term = 4 , TermAbv = S19 , TermName = Spring 2019 , DegreeplanID =7258},</v>
+        <v>new StudentTerm{ StudentTermID = 4 , FK:StudentID = 533619 , Term = 4 , TermAbv = S19 , TermName = Spring 2019 , DegreeplanID =7258},</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="G6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 5 , FK:StudentID = 533619 , Term = 5 , TermAbv = Su19 , TermName = Summer 2019 , DegreeplanID =7258},</v>
+        <v>new StudentTerm{ StudentTermID = 5 , FK:StudentID = 533619 , Term = 5 , TermAbv = Su19 , TermName = Summer 2019 , DegreeplanID =7258},</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="G7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 6 , FK:StudentID = 533619 , Term = 6 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7258},</v>
+        <v>new StudentTerm{ StudentTermID = 6 , FK:StudentID = 533619 , Term = 6 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7258},</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="G8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 7 , FK:StudentID = 533623 , Term = 1 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7255},</v>
+        <v>new StudentTerm{ StudentTermID = 7 , FK:StudentID = 533623 , Term = 1 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7255},</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 8 , FK:StudentID = 533623 , Term = 2 , TermAbv = S20 , TermName = Spring 2020 , DegreeplanID =7255},</v>
+        <v>new StudentTerm{ StudentTermID = 8 , FK:StudentID = 533623 , Term = 2 , TermAbv = S20 , TermName = Spring 2020 , DegreeplanID =7255},</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 9 , FK:StudentID = 533623 , Term = 3 , TermAbv = Su20 , TermName = Summer 2020 , DegreeplanID =7255},</v>
+        <v>new StudentTerm{ StudentTermID = 9 , FK:StudentID = 533623 , Term = 3 , TermAbv = Su20 , TermName = Summer 2020 , DegreeplanID =7255},</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 10 , FK:StudentID = 533623 , Term = 4 , TermAbv = F20 , TermName = Fall 2020 , DegreeplanID =7255},</v>
+        <v>new StudentTerm{ StudentTermID = 10 , FK:StudentID = 533623 , Term = 4 , TermAbv = F20 , TermName = Fall 2020 , DegreeplanID =7255},</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 11 , FK:StudentID = 533623 , Term = 5 , TermAbv = S21 , TermName = Spring 2021 , DegreeplanID =7255},</v>
+        <v>new StudentTerm{ StudentTermID = 11 , FK:StudentID = 533623 , Term = 5 , TermAbv = S21 , TermName = Spring 2021 , DegreeplanID =7255},</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 12 , FK:StudentID = 533907 , Term = 1 , TermAbv = F18 , TermName = Fall2018 , DegreeplanID =7254},</v>
+        <v>new StudentTerm{ StudentTermID = 12 , FK:StudentID = 533907 , Term = 1 , TermAbv = F18 , TermName = Fall2018 , DegreeplanID =7254},</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 13 , FK:StudentID = 533907 , Term = 2 , TermAbv = S19 , TermName = Spring2019 , DegreeplanID =7254},</v>
+        <v>new StudentTerm{ StudentTermID = 13 , FK:StudentID = 533907 , Term = 2 , TermAbv = S19 , TermName = Spring2019 , DegreeplanID =7254},</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 14 , FK:StudentID = 533907 , Term = 3 , TermAbv = SU19 , TermName = Summer2019 , DegreeplanID =7254},</v>
+        <v>new StudentTerm{ StudentTermID = 14 , FK:StudentID = 533907 , Term = 3 , TermAbv = SU19 , TermName = Summer2019 , DegreeplanID =7254},</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 15 , FK:StudentID = 533907 , Term = 4 , TermAbv = F20 , TermName = Fall2019 , DegreeplanID =7254},</v>
+        <v>new StudentTerm{ StudentTermID = 15 , FK:StudentID = 533907 , Term = 4 , TermAbv = F20 , TermName = Fall2019 , DegreeplanID =7254},</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudenTermID = 16 , FK:StudentID = 533907 , Term = 5 , TermAbv = S20 , TermName = Spring2020 , DegreeplanID =7254},</v>
+        <v>new StudentTerm{ StudentTermID = 16 , FK:StudentID = 533907 , Term = 5 , TermAbv = S20 , TermName = Spring2020 , DegreeplanID =7254},</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8080,8 +8080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F933"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8095,13 +8095,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>99</v>

--- a/dotnet.xlsx
+++ b/dotnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533623\Documents\44663\Degreeplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\44663\Degreeplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="4545" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>PK: DegreeID</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>FK:StudentID</t>
   </si>
   <si>
     <t>Term</t>
@@ -764,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -1847,7 +1844,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1865,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1876,7 +1873,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1972,7 +1969,7 @@
         <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3186,16 +3183,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -4435,22 +4432,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -5522,10 +5519,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
@@ -5534,10 +5531,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
@@ -6654,28 +6651,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G999"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="102.42578125" customWidth="1"/>
+    <col min="7" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
       <c r="C1" t="s">
@@ -6685,424 +6681,373 @@
         <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>533619</v>
-      </c>
-      <c r="C2" s="8">
         <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="8">
         <v>7258</v>
       </c>
-      <c r="G2" s="8" t="str">
-        <f xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A2 &amp;" , "&amp;$B$1 &amp;" = "&amp;B2&amp;" , "&amp;$C$1 &amp;" = "&amp;C2 &amp;" , "&amp;$D$1 &amp;" = "&amp;D2 &amp;" , "&amp;$E$1&amp;" = "&amp;E2 &amp;" , "&amp;$F$1&amp;"="&amp;F2&amp;"},"</f>
-        <v>new StudentTerm{ StudentTermID = 1 , FK:StudentID = 533619 , Term = 1 , TermAbv = S18 , TermName = Spring 2018 , DegreeplanID=7258},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1">
+      <c r="F2" s="8" t="str">
+        <f xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A2 &amp;" , "&amp;$B$1 &amp;" = "&amp;B2&amp;" , "&amp;$C$1 &amp;" = "&amp;C2 &amp;" , "&amp;$D$1 &amp;" = "&amp;D2 &amp;" , "&amp;$E$1&amp;" = "&amp;E2 &amp;"},"</f>
+        <v>new StudentTerm{ StudentTermID = 1 , Term = 1 , TermAbv = S18 , TermName = Spring 2018 , DegreeplanID = 7258},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>533619</v>
-      </c>
-      <c r="C3" s="8">
         <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="8">
         <v>7258</v>
       </c>
-      <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G17" si="0" xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A3 &amp;" , "&amp;$B$1 &amp;" = "&amp;B3&amp;" , "&amp;$C$1 &amp;" = "&amp;C3 &amp;" , "&amp;$D$1 &amp;" = "&amp;D3 &amp;" , "&amp;$E$1&amp;" = "&amp;E3 &amp;" , "&amp;$F$1&amp;" ="&amp;F3&amp;"},"</f>
-        <v>new StudentTerm{ StudentTermID = 2 , FK:StudentID = 533619 , Term = 2 , TermAbv = Su18 , TermName = Summer 2018 , DegreeplanID =7258},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1">
+      <c r="F3" s="8" t="str">
+        <f t="shared" ref="F3:F17" si="0" xml:space="preserve"> "new StudentTerm{"&amp;$A$1&amp;" = "&amp;A3 &amp;" , "&amp;$B$1 &amp;" = "&amp;B3&amp;" , "&amp;$C$1 &amp;" = "&amp;C3 &amp;" , "&amp;$D$1 &amp;" = "&amp;D3 &amp;" , "&amp;$E$1&amp;" = "&amp;E3 &amp;"},"</f>
+        <v>new StudentTerm{ StudentTermID = 2 , Term = 2 , TermAbv = Su18 , TermName = Summer 2018 , DegreeplanID = 7258},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>533619</v>
-      </c>
-      <c r="C4" s="8">
         <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="8">
         <v>7258</v>
       </c>
-      <c r="G4" s="8" t="str">
+      <c r="F4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 3 , FK:StudentID = 533619 , Term = 3 , TermAbv = F18 , TermName = Fall 2018 , DegreeplanID =7258},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 3 , Term = 3 , TermAbv = F18 , TermName = Fall 2018 , DegreeplanID = 7258},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>533619</v>
-      </c>
-      <c r="C5" s="8">
         <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="8">
         <v>7258</v>
       </c>
-      <c r="G5" s="8" t="str">
+      <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 4 , FK:StudentID = 533619 , Term = 4 , TermAbv = S19 , TermName = Spring 2019 , DegreeplanID =7258},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 4 , Term = 4 , TermAbv = S19 , TermName = Spring 2019 , DegreeplanID = 7258},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>533619</v>
-      </c>
-      <c r="C6" s="8">
         <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="8">
         <v>7258</v>
       </c>
-      <c r="G6" s="8" t="str">
+      <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 5 , FK:StudentID = 533619 , Term = 5 , TermAbv = Su19 , TermName = Summer 2019 , DegreeplanID =7258},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 5 , Term = 5 , TermAbv = Su19 , TermName = Summer 2019 , DegreeplanID = 7258},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>533619</v>
-      </c>
-      <c r="C7" s="8">
         <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="8">
         <v>7258</v>
       </c>
-      <c r="G7" s="8" t="str">
+      <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 6 , FK:StudentID = 533619 , Term = 6 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7258},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 6 , Term = 6 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID = 7258},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>533623</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="9">
         <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <v>7255</v>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 7 , FK:StudentID = 533623 , Term = 1 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID =7255},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 7 , Term = 1 , TermAbv = F19 , TermName = Fall 2019 , DegreeplanID = 7255},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>533623</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="9">
         <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
         <v>7255</v>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 8 , FK:StudentID = 533623 , Term = 2 , TermAbv = S20 , TermName = Spring 2020 , DegreeplanID =7255},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 8 , Term = 2 , TermAbv = S20 , TermName = Spring 2020 , DegreeplanID = 7255},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>533623</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="9">
         <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
         <v>7255</v>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 9 , FK:StudentID = 533623 , Term = 3 , TermAbv = Su20 , TermName = Summer 2020 , DegreeplanID =7255},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 9 , Term = 3 , TermAbv = Su20 , TermName = Summer 2020 , DegreeplanID = 7255},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>533623</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="9">
         <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <v>7255</v>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 10 , FK:StudentID = 533623 , Term = 4 , TermAbv = F20 , TermName = Fall 2020 , DegreeplanID =7255},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 10 , Term = 4 , TermAbv = F20 , TermName = Fall 2020 , DegreeplanID = 7255},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>533623</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="9">
         <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="5">
         <v>7255</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 11 , FK:StudentID = 533623 , Term = 5 , TermAbv = S21 , TermName = Spring 2021 , DegreeplanID =7255},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 11 , Term = 5 , TermAbv = S21 , TermName = Spring 2021 , DegreeplanID = 7255},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>533907</v>
-      </c>
-      <c r="C13" s="7">
         <v>1</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7">
         <v>7254</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 12 , FK:StudentID = 533907 , Term = 1 , TermAbv = F18 , TermName = Fall2018 , DegreeplanID =7254},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 12 , Term = 1 , TermAbv = F18 , TermName = Fall2018 , DegreeplanID = 7254},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>533907</v>
-      </c>
-      <c r="C14" s="7">
         <v>2</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="7">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7">
         <v>7254</v>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 13 , FK:StudentID = 533907 , Term = 2 , TermAbv = S19 , TermName = Spring2019 , DegreeplanID =7254},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 13 , Term = 2 , TermAbv = S19 , TermName = Spring2019 , DegreeplanID = 7254},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>533907</v>
-      </c>
-      <c r="C15" s="7">
         <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="7">
         <v>7254</v>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 14 , FK:StudentID = 533907 , Term = 3 , TermAbv = SU19 , TermName = Summer2019 , DegreeplanID =7254},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 14 , Term = 3 , TermAbv = SU19 , TermName = Summer2019 , DegreeplanID = 7254},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>533907</v>
-      </c>
-      <c r="C16" s="7">
         <v>4</v>
       </c>
+      <c r="C16" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="7">
+        <v>86</v>
+      </c>
+      <c r="E16" s="7">
         <v>7254</v>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 15 , FK:StudentID = 533907 , Term = 4 , TermAbv = F20 , TermName = Fall2019 , DegreeplanID =7254},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1">
+        <v>new StudentTerm{ StudentTermID = 15 , Term = 4 , TermAbv = F20 , TermName = Fall2019 , DegreeplanID = 7254},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <v>533907</v>
-      </c>
-      <c r="C17" s="7">
         <v>5</v>
       </c>
+      <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="7">
+        <v>87</v>
+      </c>
+      <c r="E17" s="7">
         <v>7254</v>
       </c>
-      <c r="G17" s="8" t="str">
+      <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>new StudentTerm{ StudentTermID = 16 , FK:StudentID = 533907 , Term = 5 , TermAbv = S20 , TermName = Spring2020 , DegreeplanID =7254},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>new StudentTerm{ StudentTermID = 16 , Term = 5 , TermAbv = S20 , TermName = Spring2020 , DegreeplanID = 7254},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8080,7 +8025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F933"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -8095,22 +8040,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
